--- a/csv_files/paper/2d_110classes_allz/summary.xlsx
+++ b/csv_files/paper/2d_110classes_allz/summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\paper\2d_110classes_allz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,6 @@
     <t>chisquare</t>
   </si>
   <si>
-    <t>Std/sqrt(3)</t>
-  </si>
-  <si>
     <t>true-out</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>bins</t>
+  </si>
+  <si>
+    <t>Std/sqrt(7)</t>
   </si>
 </sst>
 </file>
@@ -267,6 +267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -325,10 +326,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>גיליון1!$O$3:$O$21</c:f>
+                <c:f>גיליון1!$O$3:$O$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="19"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -351,50 +352,323 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29880715233359845</c:v>
+                    <c:v>0.19561519910898789</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>0.34992710611188255</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.456862718169367</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.8831793201773546</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2748266818136136</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.7634974650090367</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>12.879246872391256</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.285298996303322</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15.173066228535028</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16.927139782742085</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>31.484325546246669</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>28.717439414589386</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>35.094042752790592</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>54.916913122814677</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>52.227109037044606</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>40.63061578139704</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>67.038216332026551</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>68.431535128184862</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>74.509946603504829</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>76.034212895329205</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100.74715775602985</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100.66650335617695</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>101.05776030749615</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>108.47720300334338</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>113.66958920575054</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>110.63411844121732</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>125.59904417613689</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>124.18452366686981</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>125.50671784605713</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>126.12611116801844</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>118.56986875049749</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>116.46825572591329</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>123.86805850729777</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>119.03788412578096</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>122.3547869008443</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>139.10046288747643</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>125.56597379668668</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>115.11874969183883</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>129.77790093628641</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>124.04096385583962</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>115.42749955301475</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>106.8072840136259</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>109.25587828018915</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>92.185206214977683</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>98.098191125223181</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>95.579222402685616</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>92.361631202395643</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>76.458455439298959</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>79.281708393010078</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>75.490775216957076</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>83.390631661953435</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>81.390576975520716</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>70.165329539507994</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61.116149039917325</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>58.097538498561505</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>53.451007512315726</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>53.486957212359115</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>49.000104123171333</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>41.799539837326492</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>47.040120739467419</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>36.769968890997141</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>35.127028955852587</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>31.296108840739748</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>29.056902302698603</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.860517580981103</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>27.976256332242649</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>20.532639521364164</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>18.548268525825328</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>16.111774753709962</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>17.003000935609176</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>18.60957620502445</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>12.804654765883749</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>13.37670454520828</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>10.112504887615176</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8.1635076494639947</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8.4586328320689681</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>6.3613549448756492</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.7226657121345594</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>3.0152672741722046</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>3.4046786536608526</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2.6244532958391193</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.9633114466978216</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2.4327694808466287</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.7194861596015316</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>0.83299312783504276</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.4133113526720984</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>0.81909606722712247</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
                     <c:v>0.53452248382484879</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.2253945610567474</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5.931654390599963</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5.0023803857573164</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>10.331413032015284</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>19.673374562252068</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>18.76610419524166</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>23.177241505613299</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>25.85663311783799</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>48.093101673435754</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>43.866613294221402</c:v>
+                  <c:pt idx="95">
+                    <c:v>0.69802929591757357</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>0.37457458863219695</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>0.58684559732696362</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>0.2857142857142857</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>0.20203050891044214</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>0.17496355305594127</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>גיליון1!$O$3:$O$22</c:f>
+                <c:f>גיליון1!$O$3:$O$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -417,43 +691,313 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29880715233359845</c:v>
+                    <c:v>0.19561519910898789</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>0.34992710611188255</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.456862718169367</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.8831793201773546</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2748266818136136</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.7634974650090367</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>12.879246872391256</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.285298996303322</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15.173066228535028</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16.927139782742085</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>31.484325546246669</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>28.717439414589386</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>35.094042752790592</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>54.916913122814677</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>52.227109037044606</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>40.63061578139704</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>67.038216332026551</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>68.431535128184862</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>74.509946603504829</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>76.034212895329205</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100.74715775602985</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100.66650335617695</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>101.05776030749615</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>108.47720300334338</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>113.66958920575054</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>110.63411844121732</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>125.59904417613689</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>124.18452366686981</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>125.50671784605713</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>126.12611116801844</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>118.56986875049749</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>116.46825572591329</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>123.86805850729777</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>119.03788412578096</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>122.3547869008443</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>139.10046288747643</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>125.56597379668668</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>115.11874969183883</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>129.77790093628641</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>124.04096385583962</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>115.42749955301475</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>106.8072840136259</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>109.25587828018915</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>92.185206214977683</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>98.098191125223181</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>95.579222402685616</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>92.361631202395643</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>76.458455439298959</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>79.281708393010078</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>75.490775216957076</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>83.390631661953435</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>81.390576975520716</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>70.165329539507994</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61.116149039917325</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>58.097538498561505</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>53.451007512315726</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>53.486957212359115</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>49.000104123171333</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>41.799539837326492</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>47.040120739467419</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>36.769968890997141</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>35.127028955852587</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>31.296108840739748</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>29.056902302698603</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.860517580981103</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>27.976256332242649</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>20.532639521364164</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>18.548268525825328</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>16.111774753709962</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>17.003000935609176</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>18.60957620502445</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>12.804654765883749</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>13.37670454520828</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>10.112504887615176</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8.1635076494639947</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8.4586328320689681</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>6.3613549448756492</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.7226657121345594</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>3.0152672741722046</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>3.4046786536608526</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2.6244532958391193</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.9633114466978216</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2.4327694808466287</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.7194861596015316</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>0.83299312783504276</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.4133113526720984</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>0.81909606722712247</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
                     <c:v>0.53452248382484879</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.2253945610567474</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5.931654390599963</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5.0023803857573164</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>10.331413032015284</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>19.673374562252068</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>18.76610419524166</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>23.177241505613299</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>25.85663311783799</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>48.093101673435754</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>43.866613294221402</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>53.607035785559773</c:v>
+                  <c:pt idx="95">
+                    <c:v>0.69802929591757357</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>0.37457458863219695</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>0.58684559732696362</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>0.2857142857142857</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>0.20203050891044214</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>0.17496355305594127</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -839,138 +1383,678 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>גיליון1!$O$123:$O$142</c:f>
+                <c:f>גיליון1!$O$123:$O$232</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
-                    <c:v>10.42354208347904</c:v>
+                    <c:v>6.8238100867286287</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.684633309050598</c:v>
+                    <c:v>6.9947344159386935</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.056887793739065</c:v>
+                    <c:v>6.5837785100695276</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.6695936363388117</c:v>
+                    <c:v>5.6755812975757225</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.1615314113588386</c:v>
+                    <c:v>4.0336691556285666</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.5541845445414522</c:v>
+                    <c:v>4.2907209705815532</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.1606189337473971</c:v>
+                    <c:v>5.9970328109347282</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12.227428685918747</c:v>
+                    <c:v>8.0047310725567247</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>12.433726685627423</c:v>
+                    <c:v>8.1397848153257222</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>10.789427517905311</c:v>
+                    <c:v>7.0633383294343703</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>17.177280931431234</c:v>
+                    <c:v>11.245170014543596</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>11.071788063908965</c:v>
+                    <c:v>7.2481866973387703</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.787859297556146</c:v>
+                    <c:v>7.0623116882263108</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.195045866839227</c:v>
+                    <c:v>9.947492553302375</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>27.550953069044432</c:v>
+                    <c:v>18.036332558153141</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>37.883999937078528</c:v>
+                    <c:v>24.800899619909227</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>45.96688318476663</c:v>
+                    <c:v>30.092388807912261</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>40.706411214035015</c:v>
+                    <c:v>26.648601522616381</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>64.440201486851635</c:v>
+                    <c:v>42.186014444529064</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>77.078039709871518</c:v>
+                    <c:v>50.459421627042609</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>41.36953738219642</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>64.996911952569462</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>68.925919789721178</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>67.002362207916974</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>78.710071440730431</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>82.71560709806343</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>78.882182848320937</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>93.590118273520559</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>94.037552588715982</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>99.740048477369925</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>106.85532873629884</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>118.89283497534301</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>108.1294803130138</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>118.81467363102873</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>113.62440804983204</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>115.61152786840542</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>122.32583610995947</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>131.31681425014401</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>119.57438325537981</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>125.74092067594772</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>126.84861628713195</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>124.50251832905062</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>116.98654420067712</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>122.41764509160336</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>121.88194803690659</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>118.21323375672884</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>103.99019729760367</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>113.36693460298125</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>92.327114368849607</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>116.52069806465109</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>95.923079267886592</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>97.063032169227</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>95.494406833502751</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>87.21676590335926</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>85.709637709099681</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>78.509562009293759</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>77.958300471061676</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>65.219214200592504</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>67.380257102114982</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>65.036035059844252</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>62.145157658528433</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>51.401354750773244</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>54.922500576839234</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>57.227028131324694</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>49.367126005184723</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>47.838502579078806</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>39.169383889916581</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>35.969301742833999</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>32.075541610435351</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>30.846268633978553</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>32.967818469237478</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.021438307715766</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>25.393680106376774</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>20.406239359753965</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>22.412112251302233</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>21.096762009214977</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>15.889832740672523</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>10.950080486436585</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>15.033529657575381</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>11.352983883366138</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>12.638813757026341</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>12.485308912280695</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>7.5700239641452081</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>7.2549117895729021</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>11.612165249830532</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>6.9659266530553339</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>6.5074415374685133</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>6.7032280350408424</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>8.1352939184530104</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>7.1629401472642282</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>7.0433768646630392</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>4.0186236473715589</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>3.1358875225473248</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.6818184739624051</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>5.630359030188818</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>3.5535647066378431</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2.6294451939179715</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.0468949195086266</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>8.1446213613730922</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.8835448777742769</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2.7806605609941881</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>12.087225004594453</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>1.7313970067632491</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>1.6368414602041399</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.1932633203078371</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>3.1341742084763347</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>3.6385746703101733</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>3.3794434789547911</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>1.1969150415916132</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.119261512615064</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>גיליון1!$O$123:$O$142</c:f>
+                <c:f>גיליון1!$O$123:$O$232</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
-                    <c:v>10.42354208347904</c:v>
+                    <c:v>6.8238100867286287</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.684633309050598</c:v>
+                    <c:v>6.9947344159386935</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.056887793739065</c:v>
+                    <c:v>6.5837785100695276</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.6695936363388117</c:v>
+                    <c:v>5.6755812975757225</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.1615314113588386</c:v>
+                    <c:v>4.0336691556285666</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.5541845445414522</c:v>
+                    <c:v>4.2907209705815532</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9.1606189337473971</c:v>
+                    <c:v>5.9970328109347282</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12.227428685918747</c:v>
+                    <c:v>8.0047310725567247</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>12.433726685627423</c:v>
+                    <c:v>8.1397848153257222</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>10.789427517905311</c:v>
+                    <c:v>7.0633383294343703</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>17.177280931431234</c:v>
+                    <c:v>11.245170014543596</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>11.071788063908965</c:v>
+                    <c:v>7.2481866973387703</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.787859297556146</c:v>
+                    <c:v>7.0623116882263108</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.195045866839227</c:v>
+                    <c:v>9.947492553302375</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>27.550953069044432</c:v>
+                    <c:v>18.036332558153141</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>37.883999937078528</c:v>
+                    <c:v>24.800899619909227</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>45.96688318476663</c:v>
+                    <c:v>30.092388807912261</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>40.706411214035015</c:v>
+                    <c:v>26.648601522616381</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>64.440201486851635</c:v>
+                    <c:v>42.186014444529064</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>77.078039709871518</c:v>
+                    <c:v>50.459421627042609</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>41.36953738219642</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>64.996911952569462</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>68.925919789721178</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>67.002362207916974</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>78.710071440730431</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>82.71560709806343</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>78.882182848320937</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>93.590118273520559</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>94.037552588715982</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>99.740048477369925</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>106.85532873629884</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>118.89283497534301</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>108.1294803130138</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>118.81467363102873</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>113.62440804983204</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>115.61152786840542</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>122.32583610995947</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>131.31681425014401</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>119.57438325537981</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>125.74092067594772</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>126.84861628713195</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>124.50251832905062</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>116.98654420067712</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>122.41764509160336</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>121.88194803690659</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>118.21323375672884</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>103.99019729760367</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>113.36693460298125</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>92.327114368849607</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>116.52069806465109</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>95.923079267886592</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>97.063032169227</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>95.494406833502751</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>87.21676590335926</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>85.709637709099681</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>78.509562009293759</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>77.958300471061676</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>65.219214200592504</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>67.380257102114982</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>65.036035059844252</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>62.145157658528433</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>51.401354750773244</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>54.922500576839234</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>57.227028131324694</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>49.367126005184723</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>47.838502579078806</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>39.169383889916581</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>35.969301742833999</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>32.075541610435351</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>30.846268633978553</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>32.967818469237478</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.021438307715766</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>25.393680106376774</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>20.406239359753965</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>22.412112251302233</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>21.096762009214977</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>15.889832740672523</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>10.950080486436585</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>15.033529657575381</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>11.352983883366138</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>12.638813757026341</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>12.485308912280695</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>7.5700239641452081</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>7.2549117895729021</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>11.612165249830532</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>6.9659266530553339</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>6.5074415374685133</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>6.7032280350408424</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>8.1352939184530104</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>7.1629401472642282</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>7.0433768646630392</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>4.0186236473715589</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>3.1358875225473248</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.6818184739624051</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>5.630359030188818</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>3.5535647066378431</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2.6294451939179715</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.0468949195086266</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>8.1446213613730922</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.8835448777742769</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2.7806605609941881</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>12.087225004594453</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>1.7313970067632491</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>1.6368414602041399</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.1932633203078371</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>3.1341742084763347</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>3.6385746703101733</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>3.3794434789547911</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>1.1969150415916132</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.119261512615064</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1343,11 +2427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="302633552"/>
-        <c:axId val="347505576"/>
+        <c:axId val="118282800"/>
+        <c:axId val="118283584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302633552"/>
+        <c:axId val="118282800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,6 +2478,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1459,7 +2544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347505576"/>
+        <c:crossAx val="118283584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +2552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347505576"/>
+        <c:axId val="118283584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,6 +2599,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1580,7 +2666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302633552"/>
+        <c:crossAx val="118282800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,6 +2719,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1721,7 +2808,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,11 +3538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347676768"/>
-        <c:axId val="348128048"/>
+        <c:axId val="348490208"/>
+        <c:axId val="348487464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347676768"/>
+        <c:axId val="348490208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +3599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348128048"/>
+        <c:crossAx val="348487464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348128048"/>
+        <c:axId val="348487464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +3661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347676768"/>
+        <c:crossAx val="348490208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2659,8 +3745,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>relative error</a:t>
+              <a:t>relative</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> error</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3341,11 +4432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347504400"/>
-        <c:axId val="347504792"/>
+        <c:axId val="348279440"/>
+        <c:axId val="348279048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347504400"/>
+        <c:axId val="348279440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,12 +4493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347504792"/>
+        <c:crossAx val="348279048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347504792"/>
+        <c:axId val="348279048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +4555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347504400"/>
+        <c:crossAx val="348279440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4230,11 +5321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347506360"/>
-        <c:axId val="347510280"/>
+        <c:axId val="348278656"/>
+        <c:axId val="348281008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347506360"/>
+        <c:axId val="348278656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,12 +5382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347510280"/>
+        <c:crossAx val="348281008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347510280"/>
+        <c:axId val="348281008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +5444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347506360"/>
+        <c:crossAx val="348278656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4442,7 +5533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5119,11 +6209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347511456"/>
-        <c:axId val="347509104"/>
+        <c:axId val="348489424"/>
+        <c:axId val="348489816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347511456"/>
+        <c:axId val="348489424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +6270,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347509104"/>
+        <c:crossAx val="348489816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347509104"/>
+        <c:axId val="348489816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +6332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347511456"/>
+        <c:crossAx val="348489424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5336,7 +6426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5402,7 +6491,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -5720,288 +6809,288 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>-2.4315509963780584</c:v>
+                  <c:v>11.504553201297902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9938397216144885</c:v>
+                  <c:v>3.3172893341863499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20464890981640621</c:v>
+                  <c:v>-0.37497317346324011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5174480604062502E-2</c:v>
+                  <c:v>-6.148734959149816E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.5619465779506934E-2</c:v>
+                  <c:v>-1.3583193189431216E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1065423317759478E-2</c:v>
+                  <c:v>4.0036901846350122E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1652621929469556E-3</c:v>
+                  <c:v>2.0651996022213879E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0280259004677427E-2</c:v>
+                  <c:v>-1.19958793386532E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6226703084207966E-2</c:v>
+                  <c:v>2.7851735668360231E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8204091973367642E-2</c:v>
+                  <c:v>4.1346980081556663E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8073296462906202E-2</c:v>
+                  <c:v>5.214623467218845E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1190273187198669E-2</c:v>
+                  <c:v>3.6512963201166377E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7301059239082027E-3</c:v>
+                  <c:v>9.9469569785007729E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4381130125347068E-2</c:v>
+                  <c:v>8.0912084747351027E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.855267711991198E-4</c:v>
+                  <c:v>-1.3487818784956711E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6659833624698089E-3</c:v>
+                  <c:v>5.2046964034804747E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.5832339617510859E-3</c:v>
+                  <c:v>-5.2856544366176213E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9501404703416523E-3</c:v>
+                  <c:v>8.3034073463130668E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7241703942011172E-3</c:v>
+                  <c:v>1.485382572565702E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0249294495233826E-4</c:v>
+                  <c:v>-1.298781673646901E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2962361025349802E-3</c:v>
+                  <c:v>-1.9820239198405287E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0674132512573819E-3</c:v>
+                  <c:v>6.9397945533765729E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6.5977886857159799E-3</c:v>
+                  <c:v>-8.739686147436778E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6852837267531325E-4</c:v>
+                  <c:v>-6.8503878320259216E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.9335463770812261E-3</c:v>
+                  <c:v>-1.8123097605162931E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.7317726222970295E-3</c:v>
+                  <c:v>-1.3403314497615332E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.1095481454550518E-3</c:v>
+                  <c:v>-3.3293299963635392E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5724800740679179E-3</c:v>
+                  <c:v>-3.9431350565812904E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.7176888031028418E-3</c:v>
+                  <c:v>-1.3265596473084795E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.3797588885797796E-2</c:v>
+                  <c:v>-1.6059253308315383E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.4439143573622728E-3</c:v>
+                  <c:v>-5.2211943233401075E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.2980955315924211E-2</c:v>
+                  <c:v>-1.9528037254739342E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3622296168745154E-3</c:v>
+                  <c:v>2.6351467463010093E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0387855947005165E-2</c:v>
+                  <c:v>-1.5845024887575183E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8210754583344725E-3</c:v>
+                  <c:v>-8.0805134790956738E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5962085332337987E-3</c:v>
+                  <c:v>-3.381909989623743E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.5476208946703146E-2</c:v>
+                  <c:v>-2.0796398788179685E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.2664560537708695E-2</c:v>
+                  <c:v>-2.2171218869859708E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.0426043723433173E-3</c:v>
+                  <c:v>-7.679002483086411E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4.9831749146953212E-3</c:v>
+                  <c:v>-5.9623013952313309E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.7735251709563549E-3</c:v>
+                  <c:v>-4.3868149109776685E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5841652835281483E-3</c:v>
+                  <c:v>-7.4476103456911713E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1770937790127849E-2</c:v>
+                  <c:v>1.5131039564977945E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.4028904120963722E-2</c:v>
+                  <c:v>-1.5382463836561033E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-6.8520266222517291E-3</c:v>
+                  <c:v>-5.8534525144169104E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.5643021283019456E-3</c:v>
+                  <c:v>1.1196045226504341E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.8574833723739889E-3</c:v>
+                  <c:v>4.8681356078051335E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.68410812929713E-3</c:v>
+                  <c:v>6.9829720013823886E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.1710508748742625E-2</c:v>
+                  <c:v>-6.5018974777839031E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.6111014793742397E-3</c:v>
+                  <c:v>1.4459786699645176E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4771466632292573E-2</c:v>
+                  <c:v>3.3836220711303447E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8927156627950556E-3</c:v>
+                  <c:v>2.8058952217732757E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.9874230704888061E-3</c:v>
+                  <c:v>2.7908990694304279E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.7623110890781911E-3</c:v>
+                  <c:v>1.9977516697880896E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4637329296378558E-2</c:v>
+                  <c:v>3.6822232971022203E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.7069768941649958E-3</c:v>
+                  <c:v>2.5415360712498843E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.269873152410681E-3</c:v>
+                  <c:v>3.5097842747609687E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-7.9408428086733575E-3</c:v>
+                  <c:v>3.3070868030647314E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.4710713540224627E-2</c:v>
+                  <c:v>9.9784443283469741E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.8998924569152238E-3</c:v>
+                  <c:v>4.1717198419769425E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.222335013651232E-2</c:v>
+                  <c:v>2.1841206319419677E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.8048837312870945E-2</c:v>
+                  <c:v>3.4608762252730497E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-2.8351337706645958E-2</c:v>
+                  <c:v>4.12092047044074E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-4.2110959267564682E-2</c:v>
+                  <c:v>-2.4109311856402287E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.4659712607531992E-2</c:v>
+                  <c:v>7.6645414937863967E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.1508256459648956E-2</c:v>
+                  <c:v>3.817721107843708E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-5.1833460452901506E-2</c:v>
+                  <c:v>1.8301006119351548E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.3216629575675804E-3</c:v>
+                  <c:v>5.5998180499822775E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.1919830559787733E-2</c:v>
+                  <c:v>-1.8602297412908377E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.4295221495194856E-2</c:v>
+                  <c:v>-9.0696013888326182E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.5082914978035668E-2</c:v>
+                  <c:v>-3.2381602708967276E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2833077710346004E-2</c:v>
+                  <c:v>-0.11545274669882419</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-5.5109271980650534E-2</c:v>
+                  <c:v>-0.23190856739908841</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-3.6451789476461198E-3</c:v>
+                  <c:v>7.0954429141056145E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.11958370045414075</c:v>
+                  <c:v>-0.21099161550288481</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.10518720072330305</c:v>
+                  <c:v>-1.2847697401777875E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-4.9402257020747437E-2</c:v>
+                  <c:v>-0.18924739295475893</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.20127952219993933</c:v>
+                  <c:v>-0.23987525192702336</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.7945040217783159E-3</c:v>
+                  <c:v>-0.30617692426737297</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.35286669858748065</c:v>
+                  <c:v>-0.25052812769932564</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3980572506473667E-2</c:v>
+                  <c:v>8.9222167255998477E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0586891709219752E-3</c:v>
+                  <c:v>-0.58679788988616111</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-6.0601809734682988E-2</c:v>
+                  <c:v>-0.61203966783876829</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.12116702294092691</c:v>
+                  <c:v>0.47045842020780826</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.6368495187722012</c:v>
+                  <c:v>-3.0807841772910648E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.55949035306232231</c:v>
+                  <c:v>-0.76496424250093564</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.10543339483609211</c:v>
+                  <c:v>2.2933011818114687E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2194639529334386</c:v>
+                  <c:v>2.3434977363795051</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13019234883158204</c:v>
+                  <c:v>-0.8764863468118389</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1963842814522143</c:v>
+                  <c:v>-2.7317607960264545</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.7271952199439133</c:v>
+                  <c:v>-2.8076050383659639</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6904017557389821</c:v>
+                  <c:v>14.226073449361117</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.24829757128098384</c:v>
+                  <c:v>-8.5143940951675123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6038,7 +7127,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -6356,7 +7445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -6652,11 +7741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347507536"/>
-        <c:axId val="347509496"/>
+        <c:axId val="348442960"/>
+        <c:axId val="348442176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347507536"/>
+        <c:axId val="348442960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,12 +7802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347509496"/>
+        <c:crossAx val="348442176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347509496"/>
+        <c:axId val="348442176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +7864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347507536"/>
+        <c:crossAx val="348442960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6789,7 +7878,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6896,7 +7984,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6962,7 +8049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -7280,7 +8367,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$S$130:$S$222</c:f>
+              <c:f>גיליון1!$S$130:$S$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -7598,7 +8685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -7916,7 +9003,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$S$130:$S$222</c:f>
+              <c:f>[1]גיליון1!$S$130:$S$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -8212,11 +9299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347672848"/>
-        <c:axId val="347677944"/>
+        <c:axId val="348444920"/>
+        <c:axId val="348441392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347672848"/>
+        <c:axId val="348444920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,12 +9360,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347677944"/>
+        <c:crossAx val="348441392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347677944"/>
+        <c:axId val="348441392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8335,7 +9422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347672848"/>
+        <c:crossAx val="348444920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8349,7 +9436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8456,7 +9542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8522,7 +9607,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -8840,288 +9925,288 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$U$130:$U$222</c:f>
+              <c:f>גיליון1!$U$130:$U$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>2.2171650929951729</c:v>
+                  <c:v>49.633029135560179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9384920887193537</c:v>
+                  <c:v>27.511021316766296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0679699953706108</c:v>
+                  <c:v>3.585424460835875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12635355225880876</c:v>
+                  <c:v>0.38610339106825847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27246327703415069</c:v>
+                  <c:v>3.9622048718297914E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16873672064632289</c:v>
+                  <c:v>0.60952307196998767</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0819525272433808E-2</c:v>
+                  <c:v>0.26597914302137154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35915803655043049</c:v>
+                  <c:v>0.12566165400714771</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.591745635082159</c:v>
+                  <c:v>0.94085040012740673</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51046327630695099</c:v>
+                  <c:v>2.63338314305725E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61396831315097522</c:v>
+                  <c:v>5.1111322949440305E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28871546716328944</c:v>
+                  <c:v>3.0738511381881089E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12181908909662181</c:v>
+                  <c:v>2.6610438294890465E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61977855610952803</c:v>
+                  <c:v>0.19619019386748512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0914216673443742E-3</c:v>
+                  <c:v>0.61659935561733259</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35431459851514646</c:v>
+                  <c:v>0.10272774697807373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17827485060696144</c:v>
+                  <c:v>0.11492355050379077</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7808348200483205E-2</c:v>
+                  <c:v>2.9951253386114726E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5767175102318512E-2</c:v>
+                  <c:v>1.0462289901420625E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4560695857295516E-3</c:v>
+                  <c:v>8.3951611465523275E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7116179151983191E-2</c:v>
+                  <c:v>2.0202875880486627E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13709203714883716</c:v>
+                  <c:v>2.5711819575046746E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2370633800863137</c:v>
+                  <c:v>0.41596744483848846</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8072694476029233E-3</c:v>
+                  <c:v>0.26239100292434619</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27197902479194308</c:v>
+                  <c:v>1.8581870174564294</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.34204797662899389</c:v>
+                  <c:v>1.0279057475349196</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.099890788342075E-3</c:v>
+                  <c:v>6.3925340796542496E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.790592057389728E-2</c:v>
+                  <c:v>8.9060743018394242E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1573927522290111E-2</c:v>
+                  <c:v>0.9905471872432221</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0546689632006596</c:v>
+                  <c:v>1.4287638771863378</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10837167534729529</c:v>
+                  <c:v>0.14959743262317854</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8894757661747742</c:v>
+                  <c:v>2.012973233710079</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.8956252549206369E-2</c:v>
+                  <c:v>3.6214687522823888E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.53642192533845368</c:v>
+                  <c:v>1.2480745719441468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8789566898641513E-2</c:v>
+                  <c:v>0.31824635847041766</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9749147063006589E-2</c:v>
+                  <c:v>5.284039612197592E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0582584429646409</c:v>
+                  <c:v>1.9109038987227913</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.68037901910756915</c:v>
+                  <c:v>2.0852100176752972</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.401223800917199E-3</c:v>
+                  <c:v>0.2387503325337243</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5165659519165932E-2</c:v>
+                  <c:v>0.13623724422769973</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.34515606336066823</c:v>
+                  <c:v>6.9536312667653616E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14921494219897316</c:v>
+                  <c:v>0.19091706932240932</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5201522527960705</c:v>
+                  <c:v>0.73429462221196717</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57867104599317587</c:v>
+                  <c:v>0.6957225244767582</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.13027525844172089</c:v>
+                  <c:v>9.5070999362846256E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11429639059989713</c:v>
+                  <c:v>0.33249466466370098</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.5398083363963329E-2</c:v>
+                  <c:v>5.6376350337100041E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.0363720690174647E-2</c:v>
+                  <c:v>0.10908646100081264</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.28395726137903304</c:v>
+                  <c:v>8.7534990249295508E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.003111475362693E-3</c:v>
+                  <c:v>0.40301216902202652</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38497996707612342</c:v>
+                  <c:v>2.020014997377416</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.12622219045645797</c:v>
+                  <c:v>1.2566368731929325</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.2772120093756822E-2</c:v>
+                  <c:v>1.1155963705154541</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.10130869717294219</c:v>
+                  <c:v>0.52661399831991829</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.25498595805355656</c:v>
+                  <c:v>1.6136629253620809</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4562742936082078E-2</c:v>
+                  <c:v>0.68453550861517876</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.568433505302973E-3</c:v>
+                  <c:v>1.1981364373043917</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.3582672589122457E-2</c:v>
+                  <c:v>0.92935654487734176</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.16660487086755432</c:v>
+                  <c:v>7.6655954265816575E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0564663581534649E-2</c:v>
+                  <c:v>1.2088730058346191</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.60094176016423051</c:v>
+                  <c:v>0.27608591235586633</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.42542818124205961</c:v>
+                  <c:v>0.64769219413815227</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.37205816114344031</c:v>
+                  <c:v>0.7860536549281496</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.75699147760422358</c:v>
+                  <c:v>2.481249007020403E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.44793312594793899</c:v>
+                  <c:v>2.1904615074081334E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.3374177802650426</c:v>
+                  <c:v>4.9536762411664728E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.74052378845776512</c:v>
+                  <c:v>9.2314206135262118E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0095759621461864E-2</c:v>
+                  <c:v>0.79218051989832117</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0778591359353479E-2</c:v>
+                  <c:v>7.4962099730421219E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.10565614396260349</c:v>
+                  <c:v>1.4724122814064302</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.10333831845838888</c:v>
+                  <c:v>0.17222732586472944</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.2150520333410337E-2</c:v>
+                  <c:v>1.7927957888807342</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.36937899975811328</c:v>
+                  <c:v>6.541185109375486</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3171065426709301E-3</c:v>
+                  <c:v>4.9904788683542423E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1118453249622653</c:v>
+                  <c:v>3.4612326559232107</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.88099864548185403</c:v>
+                  <c:v>1.3143167534014125E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.14124874105230836</c:v>
+                  <c:v>2.0727685709625088</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8686826993807795</c:v>
+                  <c:v>2.6540387954653157</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1499874824003741E-3</c:v>
+                  <c:v>3.2107425816686312</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.7977046626468511</c:v>
+                  <c:v>1.9143124544401533</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.4011973491871323E-3</c:v>
+                  <c:v>0.26070949050282882</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.138830643772527E-4</c:v>
+                  <c:v>8.6513355598181381</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.6106428176136919E-2</c:v>
+                  <c:v>6.7426659901474171</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.20737544520818535</c:v>
+                  <c:v>3.1263021426650273</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.0557730956038416</c:v>
+                  <c:v>9.491231147046985E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0738201404999388</c:v>
+                  <c:v>3.8767531865208253</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5854328079986087E-2</c:v>
+                  <c:v>2.1694325030803749E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.7177308312601185</c:v>
+                  <c:v>13.729954101039658</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.0256363273925316E-2</c:v>
+                  <c:v>1.8245422508504625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2524184302926895</c:v>
+                  <c:v>6.5297024158687034</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.945488314409241</c:v>
+                  <c:v>14.779961346483647</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.8095325593806812</c:v>
+                  <c:v>101.19058289330864</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.0825841952017628E-2</c:v>
+                  <c:v>36.247453403911699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9158,7 +10243,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -9476,7 +10561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$U$130:$U$222</c:f>
+              <c:f>[1]גיליון1!$U$130:$U$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -9772,11 +10857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347671672"/>
-        <c:axId val="347678728"/>
+        <c:axId val="348968584"/>
+        <c:axId val="348970544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347671672"/>
+        <c:axId val="348968584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9833,12 +10918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347678728"/>
+        <c:crossAx val="348970544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347678728"/>
+        <c:axId val="348970544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9895,7 +10980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347671672"/>
+        <c:crossAx val="348968584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9909,7 +10994,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10016,7 +11100,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10082,7 +11165,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -10400,288 +11483,288 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>-2.4315509963780584</c:v>
+                  <c:v>11.504553201297902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9938397216144885</c:v>
+                  <c:v>3.3172893341863499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20464890981640621</c:v>
+                  <c:v>-0.37497317346324011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5174480604062502E-2</c:v>
+                  <c:v>-6.148734959149816E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.5619465779506934E-2</c:v>
+                  <c:v>-1.3583193189431216E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1065423317759478E-2</c:v>
+                  <c:v>4.0036901846350122E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1652621929469556E-3</c:v>
+                  <c:v>2.0651996022213879E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0280259004677427E-2</c:v>
+                  <c:v>-1.19958793386532E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6226703084207966E-2</c:v>
+                  <c:v>2.7851735668360231E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8204091973367642E-2</c:v>
+                  <c:v>4.1346980081556663E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8073296462906202E-2</c:v>
+                  <c:v>5.214623467218845E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1190273187198669E-2</c:v>
+                  <c:v>3.6512963201166377E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7301059239082027E-3</c:v>
+                  <c:v>9.9469569785007729E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4381130125347068E-2</c:v>
+                  <c:v>8.0912084747351027E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.855267711991198E-4</c:v>
+                  <c:v>-1.3487818784956711E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6659833624698089E-3</c:v>
+                  <c:v>5.2046964034804747E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.5832339617510859E-3</c:v>
+                  <c:v>-5.2856544366176213E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9501404703416523E-3</c:v>
+                  <c:v>8.3034073463130668E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7241703942011172E-3</c:v>
+                  <c:v>1.485382572565702E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0249294495233826E-4</c:v>
+                  <c:v>-1.298781673646901E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2962361025349802E-3</c:v>
+                  <c:v>-1.9820239198405287E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0674132512573819E-3</c:v>
+                  <c:v>6.9397945533765729E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6.5977886857159799E-3</c:v>
+                  <c:v>-8.739686147436778E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6852837267531325E-4</c:v>
+                  <c:v>-6.8503878320259216E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.9335463770812261E-3</c:v>
+                  <c:v>-1.8123097605162931E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.7317726222970295E-3</c:v>
+                  <c:v>-1.3403314497615332E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.1095481454550518E-3</c:v>
+                  <c:v>-3.3293299963635392E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5724800740679179E-3</c:v>
+                  <c:v>-3.9431350565812904E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.7176888031028418E-3</c:v>
+                  <c:v>-1.3265596473084795E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.3797588885797796E-2</c:v>
+                  <c:v>-1.6059253308315383E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.4439143573622728E-3</c:v>
+                  <c:v>-5.2211943233401075E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.2980955315924211E-2</c:v>
+                  <c:v>-1.9528037254739342E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3622296168745154E-3</c:v>
+                  <c:v>2.6351467463010093E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0387855947005165E-2</c:v>
+                  <c:v>-1.5845024887575183E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8210754583344725E-3</c:v>
+                  <c:v>-8.0805134790956738E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5962085332337987E-3</c:v>
+                  <c:v>-3.381909989623743E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.5476208946703146E-2</c:v>
+                  <c:v>-2.0796398788179685E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.2664560537708695E-2</c:v>
+                  <c:v>-2.2171218869859708E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.0426043723433173E-3</c:v>
+                  <c:v>-7.679002483086411E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4.9831749146953212E-3</c:v>
+                  <c:v>-5.9623013952313309E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.7735251709563549E-3</c:v>
+                  <c:v>-4.3868149109776685E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5841652835281483E-3</c:v>
+                  <c:v>-7.4476103456911713E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1770937790127849E-2</c:v>
+                  <c:v>1.5131039564977945E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.4028904120963722E-2</c:v>
+                  <c:v>-1.5382463836561033E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-6.8520266222517291E-3</c:v>
+                  <c:v>-5.8534525144169104E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.5643021283019456E-3</c:v>
+                  <c:v>1.1196045226504341E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.8574833723739889E-3</c:v>
+                  <c:v>4.8681356078051335E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.68410812929713E-3</c:v>
+                  <c:v>6.9829720013823886E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.1710508748742625E-2</c:v>
+                  <c:v>-6.5018974777839031E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.6111014793742397E-3</c:v>
+                  <c:v>1.4459786699645176E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4771466632292573E-2</c:v>
+                  <c:v>3.3836220711303447E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8927156627950556E-3</c:v>
+                  <c:v>2.8058952217732757E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.9874230704888061E-3</c:v>
+                  <c:v>2.7908990694304279E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.7623110890781911E-3</c:v>
+                  <c:v>1.9977516697880896E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4637329296378558E-2</c:v>
+                  <c:v>3.6822232971022203E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.7069768941649958E-3</c:v>
+                  <c:v>2.5415360712498843E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.269873152410681E-3</c:v>
+                  <c:v>3.5097842747609687E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-7.9408428086733575E-3</c:v>
+                  <c:v>3.3070868030647314E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.4710713540224627E-2</c:v>
+                  <c:v>9.9784443283469741E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.8998924569152238E-3</c:v>
+                  <c:v>4.1717198419769425E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.222335013651232E-2</c:v>
+                  <c:v>2.1841206319419677E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.8048837312870945E-2</c:v>
+                  <c:v>3.4608762252730497E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-2.8351337706645958E-2</c:v>
+                  <c:v>4.12092047044074E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-4.2110959267564682E-2</c:v>
+                  <c:v>-2.4109311856402287E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.4659712607531992E-2</c:v>
+                  <c:v>7.6645414937863967E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.1508256459648956E-2</c:v>
+                  <c:v>3.817721107843708E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-5.1833460452901506E-2</c:v>
+                  <c:v>1.8301006119351548E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.3216629575675804E-3</c:v>
+                  <c:v>5.5998180499822775E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.1919830559787733E-2</c:v>
+                  <c:v>-1.8602297412908377E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.4295221495194856E-2</c:v>
+                  <c:v>-9.0696013888326182E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.5082914978035668E-2</c:v>
+                  <c:v>-3.2381602708967276E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2833077710346004E-2</c:v>
+                  <c:v>-0.11545274669882419</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-5.5109271980650534E-2</c:v>
+                  <c:v>-0.23190856739908841</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-3.6451789476461198E-3</c:v>
+                  <c:v>7.0954429141056145E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.11958370045414075</c:v>
+                  <c:v>-0.21099161550288481</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.10518720072330305</c:v>
+                  <c:v>-1.2847697401777875E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-4.9402257020747437E-2</c:v>
+                  <c:v>-0.18924739295475893</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.20127952219993933</c:v>
+                  <c:v>-0.23987525192702336</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.7945040217783159E-3</c:v>
+                  <c:v>-0.30617692426737297</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.35286669858748065</c:v>
+                  <c:v>-0.25052812769932564</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3980572506473667E-2</c:v>
+                  <c:v>8.9222167255998477E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0586891709219752E-3</c:v>
+                  <c:v>-0.58679788988616111</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-6.0601809734682988E-2</c:v>
+                  <c:v>-0.61203966783876829</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.12116702294092691</c:v>
+                  <c:v>0.47045842020780826</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.6368495187722012</c:v>
+                  <c:v>-3.0807841772910648E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.55949035306232231</c:v>
+                  <c:v>-0.76496424250093564</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.10543339483609211</c:v>
+                  <c:v>2.2933011818114687E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2194639529334386</c:v>
+                  <c:v>2.3434977363795051</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13019234883158204</c:v>
+                  <c:v>-0.8764863468118389</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1963842814522143</c:v>
+                  <c:v>-2.7317607960264545</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.7271952199439133</c:v>
+                  <c:v>-2.8076050383659639</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6904017557389821</c:v>
+                  <c:v>14.226073449361117</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.24829757128098384</c:v>
+                  <c:v>-8.5143940951675123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10718,7 +11801,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
@@ -11036,7 +12119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -11968,11 +13051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347674808"/>
-        <c:axId val="347674024"/>
+        <c:axId val="348971328"/>
+        <c:axId val="348971720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347674808"/>
+        <c:axId val="348971328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12029,12 +13112,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347674024"/>
+        <c:crossAx val="348971720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347674024"/>
+        <c:axId val="348971720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12091,7 +13174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347674808"/>
+        <c:crossAx val="348971328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12105,7 +13188,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13574,11 +14656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347675200"/>
-        <c:axId val="347675592"/>
+        <c:axId val="348488640"/>
+        <c:axId val="348486680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347675200"/>
+        <c:axId val="348488640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13635,12 +14717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347675592"/>
+        <c:crossAx val="348486680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347675592"/>
+        <c:axId val="348486680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13697,7 +14779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347675200"/>
+        <c:crossAx val="348488640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13711,7 +14793,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19379,19 +20460,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>595704</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>24204</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19409,19 +20490,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>17482</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19438,20 +20519,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19468,20 +20549,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>61286</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>57823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19500,20 +20581,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>39689</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>46617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>58841</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>62305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19532,20 +20613,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>64994</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>46046</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>103094</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>5502</xdr:rowOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>47066</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19564,20 +20645,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>18634</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>57823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19596,20 +20677,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>38793</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>163484</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19628,20 +20709,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>137853</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>82435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>89362</xdr:rowOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>33944</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19670,1355 +20751,1026 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="130">
-          <cell r="P130">
-            <v>7</v>
-          </cell>
           <cell r="R130">
-            <v>-2.4315509963780584</v>
+            <v>11.504553201297902</v>
           </cell>
           <cell r="S130">
             <v>1.6329931618554523</v>
           </cell>
           <cell r="U130">
-            <v>2.2171650929951729</v>
+            <v>49.633029135560179</v>
           </cell>
         </row>
         <row r="131">
-          <cell r="P131">
-            <v>8</v>
-          </cell>
           <cell r="R131">
-            <v>-1.9938397216144885</v>
+            <v>3.3172893341863499</v>
           </cell>
           <cell r="S131">
             <v>0.63245553203367588</v>
           </cell>
           <cell r="U131">
-            <v>9.9384920887193537</v>
+            <v>27.511021316766296</v>
           </cell>
         </row>
         <row r="132">
-          <cell r="P132">
-            <v>9</v>
-          </cell>
           <cell r="R132">
-            <v>-0.20464890981640621</v>
+            <v>-0.37497317346324011</v>
           </cell>
           <cell r="S132">
             <v>0.19802950859533489</v>
           </cell>
           <cell r="U132">
-            <v>1.0679699953706108</v>
+            <v>3.585424460835875</v>
           </cell>
         </row>
         <row r="133">
-          <cell r="P133">
-            <v>10</v>
-          </cell>
           <cell r="R133">
-            <v>3.5174480604062502E-2</v>
+            <v>-6.148734959149816E-2</v>
           </cell>
           <cell r="S133">
             <v>9.8954139199058683E-2</v>
           </cell>
           <cell r="U133">
-            <v>0.12635355225880876</v>
+            <v>0.38610339106825847</v>
           </cell>
         </row>
         <row r="134">
-          <cell r="P134">
-            <v>11</v>
-          </cell>
           <cell r="R134">
-            <v>-3.5619465779506934E-2</v>
+            <v>-1.3583193189431216E-2</v>
           </cell>
           <cell r="S134">
             <v>6.8239119393494044E-2</v>
           </cell>
           <cell r="U134">
-            <v>0.27246327703415069</v>
+            <v>3.9622048718297914E-2</v>
           </cell>
         </row>
         <row r="135">
-          <cell r="P135">
-            <v>12</v>
-          </cell>
           <cell r="R135">
-            <v>2.1065423317759478E-2</v>
+            <v>4.0036901846350122E-2</v>
           </cell>
           <cell r="S135">
             <v>5.128205128205128E-2</v>
           </cell>
           <cell r="U135">
-            <v>0.16873672064632289</v>
+            <v>0.60952307196998767</v>
           </cell>
         </row>
         <row r="136">
-          <cell r="P136">
-            <v>13</v>
-          </cell>
           <cell r="R136">
-            <v>-4.1652621929469556E-3</v>
+            <v>2.0651996022213879E-2</v>
           </cell>
           <cell r="S136">
             <v>4.004407273335673E-2</v>
           </cell>
           <cell r="U136">
-            <v>1.0819525272433808E-2</v>
+            <v>0.26597914302137154</v>
           </cell>
         </row>
         <row r="137">
-          <cell r="P137">
-            <v>14</v>
-          </cell>
           <cell r="R137">
-            <v>-2.0280259004677427E-2</v>
+            <v>-1.19958793386532E-2</v>
           </cell>
           <cell r="S137">
             <v>3.3840027153248686E-2</v>
           </cell>
           <cell r="U137">
-            <v>0.35915803655043049</v>
+            <v>0.12566165400714771</v>
           </cell>
         </row>
         <row r="138">
-          <cell r="P138">
-            <v>15</v>
-          </cell>
           <cell r="R138">
-            <v>3.6226703084207966E-2</v>
+            <v>2.7851735668360231E-2</v>
           </cell>
           <cell r="S138">
             <v>2.8713886396267204E-2</v>
           </cell>
           <cell r="U138">
-            <v>1.591745635082159</v>
+            <v>0.94085040012740673</v>
           </cell>
         </row>
         <row r="139">
-          <cell r="P139">
-            <v>16</v>
-          </cell>
           <cell r="R139">
-            <v>1.8204091973367642E-2</v>
+            <v>4.1346980081556663E-3</v>
           </cell>
           <cell r="S139">
             <v>2.5479257578373642E-2</v>
           </cell>
           <cell r="U139">
-            <v>0.51046327630695099</v>
+            <v>2.63338314305725E-2</v>
           </cell>
         </row>
         <row r="140">
-          <cell r="P140">
-            <v>17</v>
-          </cell>
           <cell r="R140">
-            <v>1.8073296462906202E-2</v>
+            <v>5.214623467218845E-3</v>
           </cell>
           <cell r="S140">
             <v>2.3065580739059788E-2</v>
           </cell>
           <cell r="U140">
-            <v>0.61396831315097522</v>
+            <v>5.1111322949440305E-2</v>
           </cell>
         </row>
         <row r="141">
-          <cell r="P141">
-            <v>18</v>
-          </cell>
           <cell r="R141">
-            <v>1.1190273187198669E-2</v>
+            <v>3.6512963201166377E-3</v>
           </cell>
           <cell r="S141">
             <v>2.0825990392946817E-2</v>
           </cell>
           <cell r="U141">
-            <v>0.28871546716328944</v>
+            <v>3.0738511381881089E-2</v>
           </cell>
         </row>
         <row r="142">
-          <cell r="P142">
-            <v>19</v>
-          </cell>
           <cell r="R142">
-            <v>6.7301059239082027E-3</v>
+            <v>9.9469569785007729E-4</v>
           </cell>
           <cell r="S142">
             <v>1.9282539322832151E-2</v>
           </cell>
           <cell r="U142">
-            <v>0.12181908909662181</v>
+            <v>2.6610438294890465E-3</v>
           </cell>
         </row>
         <row r="143">
-          <cell r="P143">
-            <v>20</v>
-          </cell>
           <cell r="R143">
-            <v>1.4381130125347068E-2</v>
+            <v>8.0912084747351027E-3</v>
           </cell>
           <cell r="S143">
             <v>1.8267316060998445E-2</v>
           </cell>
           <cell r="U143">
-            <v>0.61977855610952803</v>
+            <v>0.19619019386748512</v>
           </cell>
         </row>
         <row r="144">
-          <cell r="P144">
-            <v>21</v>
-          </cell>
           <cell r="R144">
-            <v>-7.855267711991198E-4</v>
+            <v>-1.3487818784956711E-2</v>
           </cell>
           <cell r="S144">
             <v>1.7176718136839322E-2</v>
           </cell>
           <cell r="U144">
-            <v>2.0914216673443742E-3</v>
+            <v>0.61659935561733259</v>
           </cell>
         </row>
         <row r="145">
-          <cell r="P145">
-            <v>22</v>
-          </cell>
           <cell r="R145">
-            <v>9.6659833624698089E-3</v>
+            <v>5.2046964034804747E-3</v>
           </cell>
           <cell r="S145">
             <v>1.6238709775341649E-2</v>
           </cell>
           <cell r="U145">
-            <v>0.35431459851514646</v>
+            <v>0.10272774697807373</v>
           </cell>
         </row>
         <row r="146">
-          <cell r="P146">
-            <v>23</v>
-          </cell>
           <cell r="R146">
-            <v>-6.5832339617510859E-3</v>
+            <v>-5.2856544366176213E-3</v>
           </cell>
           <cell r="S146">
             <v>1.5591727976114366E-2</v>
           </cell>
           <cell r="U146">
-            <v>0.17827485060696144</v>
+            <v>0.11492355050379077</v>
           </cell>
         </row>
         <row r="147">
-          <cell r="P147">
-            <v>24</v>
-          </cell>
           <cell r="R147">
-            <v>2.9501404703416523E-3</v>
+            <v>8.3034073463130668E-4</v>
           </cell>
           <cell r="S147">
             <v>1.5172209934815136E-2</v>
           </cell>
           <cell r="U147">
-            <v>3.7808348200483205E-2</v>
+            <v>2.9951253386114726E-3</v>
           </cell>
         </row>
         <row r="148">
-          <cell r="P148">
-            <v>25</v>
-          </cell>
           <cell r="R148">
-            <v>3.7241703942011172E-3</v>
+            <v>1.485382572565702E-3</v>
           </cell>
           <cell r="S148">
             <v>1.4521950407133924E-2</v>
           </cell>
           <cell r="U148">
-            <v>6.5767175102318512E-2</v>
+            <v>1.0462289901420625E-2</v>
           </cell>
         </row>
         <row r="149">
-          <cell r="P149">
-            <v>26</v>
-          </cell>
           <cell r="R149">
-            <v>7.0249294495233826E-4</v>
+            <v>-1.298781673646901E-3</v>
           </cell>
           <cell r="S149">
             <v>1.4174953192277748E-2</v>
           </cell>
           <cell r="U149">
-            <v>2.4560695857295516E-3</v>
+            <v>8.3951611465523275E-3</v>
           </cell>
         </row>
         <row r="150">
-          <cell r="P150">
-            <v>27</v>
-          </cell>
           <cell r="R150">
-            <v>2.2962361025349802E-3</v>
+            <v>-1.9820239198405287E-3</v>
           </cell>
           <cell r="S150">
             <v>1.3944479031314379E-2</v>
           </cell>
           <cell r="U150">
-            <v>2.7116179151983191E-2</v>
+            <v>2.0202875880486627E-2</v>
           </cell>
         </row>
         <row r="151">
-          <cell r="P151">
-            <v>28</v>
-          </cell>
           <cell r="R151">
-            <v>5.0674132512573819E-3</v>
+            <v>6.9397945533765729E-4</v>
           </cell>
           <cell r="S151">
             <v>1.3686115720737697E-2</v>
           </cell>
           <cell r="U151">
-            <v>0.13709203714883716</v>
+            <v>2.5711819575046746E-3</v>
           </cell>
         </row>
         <row r="152">
-          <cell r="P152">
-            <v>29</v>
-          </cell>
           <cell r="R152">
-            <v>-6.5977886857159799E-3</v>
+            <v>-8.739686147436778E-3</v>
           </cell>
           <cell r="S152">
             <v>1.3550838384546319E-2</v>
           </cell>
           <cell r="U152">
-            <v>0.2370633800863137</v>
+            <v>0.41596744483848846</v>
           </cell>
         </row>
         <row r="153">
-          <cell r="P153">
-            <v>30</v>
-          </cell>
           <cell r="R153">
-            <v>5.6852837267531325E-4</v>
+            <v>-6.8503878320259216E-3</v>
           </cell>
           <cell r="S153">
             <v>1.337336474903855E-2</v>
           </cell>
           <cell r="U153">
-            <v>1.8072694476029233E-3</v>
+            <v>0.26239100292434619</v>
           </cell>
         </row>
         <row r="154">
-          <cell r="P154">
-            <v>31</v>
-          </cell>
           <cell r="R154">
-            <v>-6.9335463770812261E-3</v>
+            <v>-1.8123097605162931E-2</v>
           </cell>
           <cell r="S154">
             <v>1.3294980928779005E-2</v>
           </cell>
           <cell r="U154">
-            <v>0.27197902479194308</v>
+            <v>1.8581870174564294</v>
           </cell>
         </row>
         <row r="155">
-          <cell r="P155">
-            <v>32</v>
-          </cell>
           <cell r="R155">
-            <v>-7.7317726222970295E-3</v>
+            <v>-1.3403314497615332E-2</v>
           </cell>
           <cell r="S155">
             <v>1.3220124979025265E-2</v>
           </cell>
           <cell r="U155">
-            <v>0.34204797662899389</v>
+            <v>1.0279057475349196</v>
           </cell>
         </row>
         <row r="156">
-          <cell r="P156">
-            <v>33</v>
-          </cell>
           <cell r="R156">
-            <v>-1.1095481454550518E-3</v>
+            <v>-3.3293299963635392E-3</v>
           </cell>
           <cell r="S156">
             <v>1.3168015154181935E-2</v>
           </cell>
           <cell r="U156">
-            <v>7.099890788342075E-3</v>
+            <v>6.3925340796542496E-2</v>
           </cell>
         </row>
         <row r="157">
-          <cell r="P157">
-            <v>34</v>
-          </cell>
           <cell r="R157">
-            <v>2.5724800740679179E-3</v>
+            <v>-3.9431350565812904E-3</v>
           </cell>
           <cell r="S157">
             <v>1.3212910564542248E-2</v>
           </cell>
           <cell r="U157">
-            <v>3.790592057389728E-2</v>
+            <v>8.9060743018394242E-2</v>
           </cell>
         </row>
         <row r="158">
-          <cell r="P158">
-            <v>35</v>
-          </cell>
           <cell r="R158">
-            <v>-2.7176888031028418E-3</v>
+            <v>-1.3265596473084795E-2</v>
           </cell>
           <cell r="S158">
             <v>1.3328743112218882E-2</v>
           </cell>
           <cell r="U158">
-            <v>4.1573927522290111E-2</v>
+            <v>0.9905471872432221</v>
           </cell>
         </row>
         <row r="159">
-          <cell r="P159">
-            <v>36</v>
-          </cell>
           <cell r="R159">
-            <v>-1.3797588885797796E-2</v>
+            <v>-1.6059253308315383E-2</v>
           </cell>
           <cell r="S159">
             <v>1.3435230372511476E-2</v>
           </cell>
           <cell r="U159">
-            <v>1.0546689632006596</v>
+            <v>1.4287638771863378</v>
           </cell>
         </row>
         <row r="160">
-          <cell r="P160">
-            <v>37</v>
-          </cell>
           <cell r="R160">
-            <v>-4.4439143573622728E-3</v>
+            <v>-5.2211943233401075E-3</v>
           </cell>
           <cell r="S160">
             <v>1.3499192392788215E-2</v>
           </cell>
           <cell r="U160">
-            <v>0.10837167534729529</v>
+            <v>0.14959743262317854</v>
           </cell>
         </row>
         <row r="161">
-          <cell r="P161">
-            <v>38</v>
-          </cell>
           <cell r="R161">
-            <v>-1.2980955315924211E-2</v>
+            <v>-1.9528037254739342E-2</v>
           </cell>
           <cell r="S161">
             <v>1.3763839347353903E-2</v>
           </cell>
           <cell r="U161">
-            <v>0.8894757661747742</v>
+            <v>2.012973233710079</v>
           </cell>
         </row>
         <row r="162">
-          <cell r="P162">
-            <v>39</v>
-          </cell>
           <cell r="R162">
-            <v>3.3622296168745154E-3</v>
+            <v>2.6351467463010093E-4</v>
           </cell>
           <cell r="S162">
             <v>1.3847214960382929E-2</v>
           </cell>
           <cell r="U162">
-            <v>5.8956252549206369E-2</v>
+            <v>3.6214687522823888E-4</v>
           </cell>
         </row>
         <row r="163">
-          <cell r="P163">
-            <v>40</v>
-          </cell>
           <cell r="R163">
-            <v>-1.0387855947005165E-2</v>
+            <v>-1.5845024887575183E-2</v>
           </cell>
           <cell r="S163">
             <v>1.4183148764245436E-2</v>
           </cell>
           <cell r="U163">
-            <v>0.53642192533845368</v>
+            <v>1.2480745719441468</v>
           </cell>
         </row>
         <row r="164">
-          <cell r="P164">
-            <v>41</v>
-          </cell>
           <cell r="R164">
-            <v>2.8210754583344725E-3</v>
+            <v>-8.0805134790956738E-3</v>
           </cell>
           <cell r="S164">
             <v>1.432376666040793E-2</v>
           </cell>
           <cell r="U164">
-            <v>3.8789566898641513E-2</v>
+            <v>0.31824635847041766</v>
           </cell>
         </row>
         <row r="165">
-          <cell r="P165">
-            <v>42</v>
-          </cell>
           <cell r="R165">
-            <v>3.5962085332337987E-3</v>
+            <v>-3.381909989623743E-3</v>
           </cell>
           <cell r="S165">
             <v>1.4712247158412491E-2</v>
           </cell>
           <cell r="U165">
-            <v>5.9749147063006589E-2</v>
+            <v>5.284039612197592E-2</v>
           </cell>
         </row>
         <row r="166">
-          <cell r="P166">
-            <v>43</v>
-          </cell>
           <cell r="R166">
-            <v>-1.5476208946703146E-2</v>
+            <v>-2.0796398788179685E-2</v>
           </cell>
           <cell r="S166">
             <v>1.504418666962188E-2</v>
           </cell>
           <cell r="U166">
-            <v>1.0582584429646409</v>
+            <v>1.9109038987227913</v>
           </cell>
         </row>
         <row r="167">
-          <cell r="P167">
-            <v>44</v>
-          </cell>
           <cell r="R167">
-            <v>-1.2664560537708695E-2</v>
+            <v>-2.2171218869859708E-2</v>
           </cell>
           <cell r="S167">
             <v>1.5353757178626857E-2</v>
           </cell>
           <cell r="U167">
-            <v>0.68037901910756915</v>
+            <v>2.0852100176752972</v>
           </cell>
         </row>
         <row r="168">
-          <cell r="P168">
-            <v>45</v>
-          </cell>
           <cell r="R168">
-            <v>-1.0426043723433173E-3</v>
+            <v>-7.679002483086411E-3</v>
           </cell>
           <cell r="S168">
             <v>1.5715666909482562E-2</v>
           </cell>
           <cell r="U168">
-            <v>4.401223800917199E-3</v>
+            <v>0.2387503325337243</v>
           </cell>
         </row>
         <row r="169">
-          <cell r="P169">
-            <v>46</v>
-          </cell>
           <cell r="R169">
-            <v>-4.9831749146953212E-3</v>
+            <v>-5.9623013952313309E-3</v>
           </cell>
           <cell r="S169">
             <v>1.6153476372506338E-2</v>
           </cell>
           <cell r="U169">
-            <v>9.5165659519165932E-2</v>
+            <v>0.13623724422769973</v>
           </cell>
         </row>
         <row r="170">
-          <cell r="P170">
-            <v>47</v>
-          </cell>
           <cell r="R170">
-            <v>9.7735251709563549E-3</v>
+            <v>-4.3868149109776685E-3</v>
           </cell>
           <cell r="S170">
             <v>1.6635792022840736E-2</v>
           </cell>
           <cell r="U170">
-            <v>0.34515606336066823</v>
+            <v>6.9536312667653616E-2</v>
           </cell>
         </row>
         <row r="171">
-          <cell r="P171">
-            <v>48</v>
-          </cell>
           <cell r="R171">
-            <v>6.5841652835281483E-3</v>
+            <v>-7.4476103456911713E-3</v>
           </cell>
           <cell r="S171">
             <v>1.7044904292704971E-2</v>
           </cell>
           <cell r="U171">
-            <v>0.14921494219897316</v>
+            <v>0.19091706932240932</v>
           </cell>
         </row>
         <row r="172">
-          <cell r="P172">
-            <v>49</v>
-          </cell>
           <cell r="R172">
-            <v>2.1770937790127849E-2</v>
+            <v>1.5131039564977945E-2</v>
           </cell>
           <cell r="S172">
             <v>1.7657678008211362E-2</v>
           </cell>
           <cell r="U172">
-            <v>1.5201522527960705</v>
+            <v>0.73429462221196717</v>
           </cell>
         </row>
         <row r="173">
-          <cell r="P173">
-            <v>50</v>
-          </cell>
           <cell r="R173">
-            <v>-1.4028904120963722E-2</v>
+            <v>-1.5382463836561033E-2</v>
           </cell>
           <cell r="S173">
             <v>1.844199375737695E-2</v>
           </cell>
           <cell r="U173">
-            <v>0.57867104599317587</v>
+            <v>0.6957225244767582</v>
           </cell>
         </row>
         <row r="174">
-          <cell r="P174">
-            <v>51</v>
-          </cell>
           <cell r="R174">
-            <v>-6.8520266222517291E-3</v>
+            <v>-5.8534525144169104E-3</v>
           </cell>
           <cell r="S174">
             <v>1.8984015070124632E-2</v>
           </cell>
           <cell r="U174">
-            <v>0.13027525844172089</v>
+            <v>9.5070999362846256E-2</v>
           </cell>
         </row>
         <row r="175">
-          <cell r="P175">
-            <v>52</v>
-          </cell>
           <cell r="R175">
-            <v>6.5643021283019456E-3</v>
+            <v>1.1196045226504341E-2</v>
           </cell>
           <cell r="S175">
             <v>1.9416560651186562E-2</v>
           </cell>
           <cell r="U175">
-            <v>0.11429639059989713</v>
+            <v>0.33249466466370098</v>
           </cell>
         </row>
         <row r="176">
-          <cell r="P176">
-            <v>53</v>
-          </cell>
           <cell r="R176">
-            <v>-3.8574833723739889E-3</v>
+            <v>4.8681356078051335E-3</v>
           </cell>
           <cell r="S176">
             <v>2.0502847851135975E-2</v>
           </cell>
           <cell r="U176">
-            <v>3.5398083363963329E-2</v>
+            <v>5.6376350337100041E-2</v>
           </cell>
         </row>
         <row r="177">
-          <cell r="P177">
-            <v>54</v>
-          </cell>
           <cell r="R177">
-            <v>-3.68410812929713E-3</v>
+            <v>6.9829720013823886E-3</v>
           </cell>
           <cell r="S177">
             <v>2.1142428689408906E-2</v>
           </cell>
           <cell r="U177">
-            <v>3.0363720690174647E-2</v>
+            <v>0.10908646100081264</v>
           </cell>
         </row>
         <row r="178">
-          <cell r="P178">
-            <v>55</v>
-          </cell>
           <cell r="R178">
-            <v>-1.1710508748742625E-2</v>
+            <v>-6.5018974777839031E-3</v>
           </cell>
           <cell r="S178">
             <v>2.1976031725940863E-2</v>
           </cell>
           <cell r="U178">
-            <v>0.28395726137903304</v>
+            <v>8.7534990249295508E-2</v>
           </cell>
         </row>
         <row r="179">
-          <cell r="P179">
-            <v>56</v>
-          </cell>
           <cell r="R179">
-            <v>-1.6111014793742397E-3</v>
+            <v>1.4459786699645176E-2</v>
           </cell>
           <cell r="S179">
             <v>2.2777329617136386E-2</v>
           </cell>
           <cell r="U179">
-            <v>5.003111475362693E-3</v>
+            <v>0.40301216902202652</v>
           </cell>
         </row>
         <row r="180">
-          <cell r="P180">
-            <v>57</v>
-          </cell>
           <cell r="R180">
-            <v>1.4771466632292573E-2</v>
+            <v>3.3836220711303447E-2</v>
           </cell>
           <cell r="S180">
             <v>2.3806993438741434E-2</v>
           </cell>
           <cell r="U180">
-            <v>0.38497996707612342</v>
+            <v>2.020014997377416</v>
           </cell>
         </row>
         <row r="181">
-          <cell r="P181">
-            <v>58</v>
-          </cell>
           <cell r="R181">
-            <v>8.8927156627950556E-3</v>
+            <v>2.8058952217732757E-2</v>
           </cell>
           <cell r="S181">
             <v>2.5030328537576901E-2</v>
           </cell>
           <cell r="U181">
-            <v>0.12622219045645797</v>
+            <v>1.2566368731929325</v>
           </cell>
         </row>
         <row r="182">
-          <cell r="P182">
-            <v>59</v>
-          </cell>
           <cell r="R182">
-            <v>3.9874230704888061E-3</v>
+            <v>2.7908990694304279E-2</v>
           </cell>
           <cell r="S182">
             <v>2.6423514707860023E-2</v>
           </cell>
           <cell r="U182">
-            <v>2.2772120093756822E-2</v>
+            <v>1.1155963705154541</v>
           </cell>
         </row>
         <row r="183">
-          <cell r="P183">
-            <v>60</v>
-          </cell>
           <cell r="R183">
-            <v>-8.7623110890781911E-3</v>
+            <v>1.9977516697880896E-2</v>
           </cell>
           <cell r="S183">
             <v>2.7529308506178359E-2</v>
           </cell>
           <cell r="U183">
-            <v>0.10130869717294219</v>
+            <v>0.52661399831991829</v>
           </cell>
         </row>
         <row r="184">
-          <cell r="P184">
-            <v>61</v>
-          </cell>
           <cell r="R184">
-            <v>1.4637329296378558E-2</v>
+            <v>3.6822232971022203E-2</v>
           </cell>
           <cell r="S184">
             <v>2.8987029394585629E-2</v>
           </cell>
           <cell r="U184">
-            <v>0.25498595805355656</v>
+            <v>1.6136629253620809</v>
           </cell>
         </row>
         <row r="185">
-          <cell r="P185">
-            <v>62</v>
-          </cell>
           <cell r="R185">
-            <v>-3.7069768941649958E-3</v>
+            <v>2.5415360712498843E-2</v>
           </cell>
           <cell r="S185">
             <v>3.0718378505606096E-2</v>
           </cell>
           <cell r="U185">
-            <v>1.4562742936082078E-2</v>
+            <v>0.68453550861517876</v>
           </cell>
         </row>
         <row r="186">
-          <cell r="P186">
-            <v>63</v>
-          </cell>
           <cell r="R186">
-            <v>-1.269873152410681E-3</v>
+            <v>3.5097842747609687E-2</v>
           </cell>
           <cell r="S186">
             <v>3.2064707742092177E-2</v>
           </cell>
           <cell r="U186">
-            <v>1.568433505302973E-3</v>
+            <v>1.1981364373043917</v>
           </cell>
         </row>
         <row r="187">
-          <cell r="P187">
-            <v>64</v>
-          </cell>
           <cell r="R187">
-            <v>-7.9408428086733575E-3</v>
+            <v>3.3070868030647314E-2</v>
           </cell>
           <cell r="S187">
             <v>3.430476221747198E-2</v>
           </cell>
           <cell r="U187">
-            <v>5.3582672589122457E-2</v>
+            <v>0.92935654487734176</v>
           </cell>
         </row>
         <row r="188">
-          <cell r="P188">
-            <v>65</v>
-          </cell>
           <cell r="R188">
-            <v>-1.4710713540224627E-2</v>
+            <v>9.9784443283469741E-3</v>
           </cell>
           <cell r="S188">
             <v>3.6040423985645734E-2</v>
           </cell>
           <cell r="U188">
-            <v>0.16660487086755432</v>
+            <v>7.6655954265816575E-2</v>
           </cell>
         </row>
         <row r="189">
-          <cell r="P189">
-            <v>66</v>
-          </cell>
           <cell r="R189">
-            <v>-3.8998924569152238E-3</v>
+            <v>4.1717198419769425E-2</v>
           </cell>
           <cell r="S189">
             <v>3.7942399730627178E-2</v>
           </cell>
           <cell r="U189">
-            <v>1.0564663581534649E-2</v>
+            <v>1.2088730058346191</v>
           </cell>
         </row>
         <row r="190">
-          <cell r="P190">
-            <v>67</v>
-          </cell>
           <cell r="R190">
-            <v>-3.222335013651232E-2</v>
+            <v>2.1841206319419677E-2</v>
           </cell>
           <cell r="S190">
             <v>4.1567556712637267E-2</v>
           </cell>
           <cell r="U190">
-            <v>0.60094176016423051</v>
+            <v>0.27608591235586633</v>
           </cell>
         </row>
         <row r="191">
-          <cell r="P191">
-            <v>68</v>
-          </cell>
           <cell r="R191">
-            <v>-2.8048837312870945E-2</v>
+            <v>3.4608762252730497E-2</v>
           </cell>
           <cell r="S191">
             <v>4.3003295253753064E-2</v>
           </cell>
           <cell r="U191">
-            <v>0.42542818124205961</v>
+            <v>0.64769219413815227</v>
           </cell>
         </row>
         <row r="192">
-          <cell r="P192">
-            <v>69</v>
-          </cell>
           <cell r="R192">
-            <v>-2.8351337706645958E-2</v>
+            <v>4.12092047044074E-2</v>
           </cell>
           <cell r="S192">
             <v>4.6480215984769452E-2</v>
           </cell>
           <cell r="U192">
-            <v>0.37205816114344031</v>
+            <v>0.7860536549281496</v>
           </cell>
         </row>
         <row r="193">
-          <cell r="P193">
-            <v>70</v>
-          </cell>
           <cell r="R193">
-            <v>-4.2110959267564682E-2</v>
+            <v>-2.4109311856402287E-3</v>
           </cell>
           <cell r="S193">
             <v>4.8400476747043952E-2</v>
           </cell>
           <cell r="U193">
-            <v>0.75699147760422358</v>
+            <v>2.481249007020403E-3</v>
           </cell>
         </row>
         <row r="194">
-          <cell r="P194">
-            <v>71</v>
-          </cell>
           <cell r="R194">
-            <v>-3.4659712607531992E-2</v>
+            <v>7.6645414937863967E-3</v>
           </cell>
           <cell r="S194">
             <v>5.1786715433664143E-2</v>
           </cell>
           <cell r="U194">
-            <v>0.44793312594793899</v>
+            <v>2.1904615074081334E-2</v>
           </cell>
         </row>
         <row r="195">
-          <cell r="P195">
-            <v>72</v>
-          </cell>
           <cell r="R195">
-            <v>-3.1508256459648956E-2</v>
+            <v>3.817721107843708E-3</v>
           </cell>
           <cell r="S195">
             <v>5.4242586434973504E-2</v>
           </cell>
           <cell r="U195">
-            <v>0.3374177802650426</v>
+            <v>4.9536762411664728E-3</v>
           </cell>
         </row>
         <row r="196">
-          <cell r="P196">
-            <v>73</v>
-          </cell>
           <cell r="R196">
-            <v>-5.1833460452901506E-2</v>
+            <v>1.8301006119351548E-3</v>
           </cell>
           <cell r="S196">
             <v>6.0233860193683417E-2</v>
           </cell>
           <cell r="U196">
-            <v>0.74052378845776512</v>
+            <v>9.2314206135262118E-4</v>
           </cell>
         </row>
         <row r="197">
-          <cell r="P197">
-            <v>74</v>
-          </cell>
           <cell r="R197">
-            <v>6.3216629575675804E-3</v>
+            <v>5.5998180499822775E-2</v>
           </cell>
           <cell r="S197">
             <v>6.291610618605574E-2</v>
           </cell>
           <cell r="U197">
-            <v>1.0095759621461864E-2</v>
+            <v>0.79218051989832117</v>
           </cell>
         </row>
         <row r="198">
-          <cell r="P198">
-            <v>75</v>
-          </cell>
           <cell r="R198">
-            <v>-1.1919830559787733E-2</v>
+            <v>-1.8602297412908377E-3</v>
           </cell>
           <cell r="S198">
             <v>6.7943155358499832E-2</v>
           </cell>
           <cell r="U198">
-            <v>3.0778591359353479E-2</v>
+            <v>7.4962099730421219E-4</v>
           </cell>
         </row>
         <row r="199">
-          <cell r="P199">
-            <v>76</v>
-          </cell>
           <cell r="R199">
-            <v>-2.4295221495194856E-2</v>
+            <v>-9.0696013888326182E-2</v>
           </cell>
           <cell r="S199">
             <v>7.474350927519359E-2</v>
           </cell>
           <cell r="U199">
-            <v>0.10565614396260349</v>
+            <v>1.4724122814064302</v>
           </cell>
         </row>
         <row r="200">
-          <cell r="P200">
-            <v>77</v>
-          </cell>
           <cell r="R200">
-            <v>-2.5082914978035668E-2</v>
+            <v>-3.2381602708967276E-2</v>
           </cell>
           <cell r="S200">
             <v>7.8027431464087041E-2</v>
           </cell>
           <cell r="U200">
-            <v>0.10333831845838888</v>
+            <v>0.17222732586472944</v>
           </cell>
         </row>
         <row r="201">
-          <cell r="P201">
-            <v>78</v>
-          </cell>
           <cell r="R201">
-            <v>1.2833077710346004E-2</v>
+            <v>-0.11545274669882419</v>
           </cell>
           <cell r="S201">
             <v>8.6226122711845377E-2</v>
           </cell>
           <cell r="U201">
-            <v>2.2150520333410337E-2</v>
+            <v>1.7927957888807342</v>
           </cell>
         </row>
         <row r="202">
-          <cell r="P202">
-            <v>79</v>
-          </cell>
           <cell r="R202">
-            <v>-5.5109271980650534E-2</v>
+            <v>-0.23190856739908841</v>
           </cell>
           <cell r="S202">
             <v>9.067521068905561E-2</v>
           </cell>
           <cell r="U202">
-            <v>0.36937899975811328</v>
+            <v>6.541185109375486</v>
           </cell>
         </row>
         <row r="203">
-          <cell r="P203">
-            <v>80</v>
-          </cell>
           <cell r="R203">
-            <v>-3.6451789476461198E-3</v>
+            <v>7.0954429141056145E-3</v>
           </cell>
           <cell r="S203">
             <v>0.10044039219036507</v>
           </cell>
           <cell r="U203">
-            <v>1.3171065426709301E-3</v>
+            <v>4.9904788683542423E-3</v>
           </cell>
         </row>
         <row r="204">
-          <cell r="P204">
-            <v>81</v>
-          </cell>
           <cell r="R204">
-            <v>-0.11958370045414075</v>
+            <v>-0.21099161550288481</v>
           </cell>
           <cell r="S204">
             <v>0.11340959542474854</v>
           </cell>
           <cell r="U204">
-            <v>1.1118453249622653</v>
+            <v>3.4612326559232107</v>
           </cell>
         </row>
         <row r="205">
-          <cell r="P205">
-            <v>82</v>
-          </cell>
           <cell r="R205">
-            <v>0.10518720072330305</v>
+            <v>-1.2847697401777875E-2</v>
           </cell>
           <cell r="S205">
             <v>0.11206636293610515</v>
           </cell>
           <cell r="U205">
-            <v>0.88099864548185403</v>
+            <v>1.3143167534014125E-2</v>
           </cell>
         </row>
         <row r="206">
-          <cell r="P206">
-            <v>83</v>
-          </cell>
           <cell r="R206">
-            <v>-4.9402257020747437E-2</v>
+            <v>-0.18924739295475893</v>
           </cell>
           <cell r="S206">
             <v>0.131448155980155</v>
           </cell>
           <cell r="U206">
-            <v>0.14124874105230836</v>
+            <v>2.0727685709625088</v>
           </cell>
         </row>
         <row r="207">
-          <cell r="P207">
-            <v>84</v>
-          </cell>
           <cell r="R207">
-            <v>-0.20127952219993933</v>
+            <v>-0.23987525192702336</v>
           </cell>
           <cell r="S207">
             <v>0.14724203476646205</v>
           </cell>
           <cell r="U207">
-            <v>1.8686826993807795</v>
+            <v>2.6540387954653157</v>
           </cell>
         </row>
         <row r="208">
-          <cell r="P208">
-            <v>85</v>
-          </cell>
           <cell r="R208">
-            <v>5.7945040217783159E-3</v>
+            <v>-0.30617692426737297</v>
           </cell>
           <cell r="S208">
             <v>0.17087153154335219</v>
           </cell>
           <cell r="U208">
-            <v>1.1499874824003741E-3</v>
+            <v>3.2107425816686312</v>
           </cell>
         </row>
         <row r="209">
-          <cell r="P209">
-            <v>86</v>
-          </cell>
           <cell r="R209">
-            <v>-0.35286669858748065</v>
+            <v>-0.25052812769932564</v>
           </cell>
           <cell r="S209">
             <v>0.18107149208503706</v>
           </cell>
           <cell r="U209">
-            <v>3.7977046626468511</v>
+            <v>1.9143124544401533</v>
           </cell>
         </row>
         <row r="210">
-          <cell r="P210">
-            <v>87</v>
-          </cell>
           <cell r="R210">
-            <v>1.3980572506473667E-2</v>
+            <v>8.9222167255998477E-2</v>
           </cell>
           <cell r="S210">
             <v>0.17474081133220759</v>
           </cell>
           <cell r="U210">
-            <v>6.4011973491871323E-3</v>
+            <v>0.26070949050282882</v>
           </cell>
         </row>
         <row r="211">
-          <cell r="P211">
-            <v>88</v>
-          </cell>
           <cell r="R211">
-            <v>4.0586891709219752E-3</v>
+            <v>-0.58679788988616111</v>
           </cell>
           <cell r="S211">
             <v>0.19950186722152657</v>
           </cell>
           <cell r="U211">
-            <v>4.138830643772527E-4</v>
+            <v>8.6513355598181381</v>
           </cell>
         </row>
         <row r="212">
-          <cell r="P212">
-            <v>89</v>
-          </cell>
           <cell r="R212">
-            <v>-6.0601809734682988E-2</v>
+            <v>-0.61203966783876829</v>
           </cell>
           <cell r="S212">
             <v>0.23570226039551587</v>
           </cell>
           <cell r="U212">
-            <v>6.6106428176136919E-2</v>
+            <v>6.7426659901474171</v>
           </cell>
         </row>
         <row r="213">
-          <cell r="P213">
-            <v>90</v>
-          </cell>
           <cell r="R213">
-            <v>0.12116702294092691</v>
+            <v>0.47045842020780826</v>
           </cell>
           <cell r="S213">
             <v>0.26607604209509572</v>
           </cell>
           <cell r="U213">
-            <v>0.20737544520818535</v>
+            <v>3.1263021426650273</v>
           </cell>
         </row>
         <row r="214">
-          <cell r="P214">
-            <v>91</v>
-          </cell>
           <cell r="R214">
-            <v>-0.6368495187722012</v>
+            <v>-3.0807841772910648E-2</v>
           </cell>
           <cell r="S214">
             <v>0.31622776601683794</v>
           </cell>
           <cell r="U214">
-            <v>4.0557730956038416</v>
+            <v>9.491231147046985E-3</v>
           </cell>
         </row>
         <row r="215">
-          <cell r="P215">
-            <v>92</v>
-          </cell>
           <cell r="R215">
-            <v>-0.55949035306232231</v>
+            <v>-0.76496424250093564</v>
           </cell>
           <cell r="S215">
             <v>0.38851434494290565</v>
           </cell>
           <cell r="U215">
-            <v>2.0738201404999388</v>
+            <v>3.8767531865208253</v>
           </cell>
         </row>
         <row r="216">
-          <cell r="P216">
-            <v>93</v>
-          </cell>
           <cell r="R216">
-            <v>-0.10543339483609211</v>
+            <v>2.2933011818114687E-2</v>
           </cell>
           <cell r="S216">
             <v>0.4923659639173309</v>
           </cell>
           <cell r="U216">
-            <v>4.5854328079986087E-2</v>
+            <v>2.1694325030803749E-3</v>
           </cell>
         </row>
         <row r="217">
-          <cell r="P217">
-            <v>94</v>
-          </cell>
           <cell r="R217">
-            <v>1.2194639529334386</v>
+            <v>2.3434977363795051</v>
           </cell>
           <cell r="S217">
             <v>0.63245553203367588</v>
           </cell>
           <cell r="U217">
-            <v>3.7177308312601185</v>
+            <v>13.729954101039658</v>
           </cell>
         </row>
         <row r="218">
-          <cell r="P218">
-            <v>95</v>
-          </cell>
           <cell r="R218">
-            <v>0.13019234883158204</v>
+            <v>-0.8764863468118389</v>
           </cell>
           <cell r="S218">
             <v>0.64888568452305018</v>
           </cell>
           <cell r="U218">
-            <v>4.0256363273925316E-2</v>
+            <v>1.8245422508504625</v>
           </cell>
         </row>
         <row r="219">
-          <cell r="P219">
-            <v>96</v>
-          </cell>
           <cell r="R219">
-            <v>1.1963842814522143</v>
+            <v>-2.7317607960264545</v>
           </cell>
           <cell r="S219">
             <v>1.0690449676496976</v>
           </cell>
           <cell r="U219">
-            <v>1.2524184302926895</v>
+            <v>6.5297024158687034</v>
           </cell>
         </row>
         <row r="220">
-          <cell r="P220">
-            <v>97</v>
-          </cell>
           <cell r="R220">
-            <v>-2.7271952199439133</v>
+            <v>-2.8076050383659639</v>
           </cell>
           <cell r="S220">
             <v>0.73029674334022143</v>
           </cell>
           <cell r="U220">
-            <v>13.945488314409241</v>
+            <v>14.779961346483647</v>
           </cell>
         </row>
         <row r="221">
-          <cell r="P221">
-            <v>98</v>
-          </cell>
           <cell r="R221">
-            <v>3.6904017557389821</v>
+            <v>14.226073449361117</v>
           </cell>
           <cell r="S221">
             <v>1.4142135623730949</v>
           </cell>
           <cell r="U221">
-            <v>6.8095325593806812</v>
+            <v>101.19058289330864</v>
           </cell>
         </row>
         <row r="222">
-          <cell r="P222">
-            <v>99</v>
-          </cell>
           <cell r="R222">
-            <v>-0.24829757128098384</v>
+            <v>-8.5143940951675123</v>
           </cell>
           <cell r="S222">
             <v>1.4142135623730949</v>
           </cell>
           <cell r="U222">
-            <v>3.0825841952017628E-2</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="P223">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="P224">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="P225">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="P226">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="P227">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="P228">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="P229">
-            <v>106</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="P230">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="P231">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="P232">
-            <v>109</v>
+            <v>36.247453403911699</v>
           </cell>
         </row>
       </sheetData>
@@ -23144,10 +23896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U244"/>
+  <dimension ref="A1:V244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF162" sqref="BF162"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23212,7 +23964,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -23256,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>N3/SQRT(3)</f>
+        <f>N3/SQRT(7)</f>
         <v>0</v>
       </c>
     </row>
@@ -23301,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O67" si="3">N4/SQRT(3)</f>
+        <f t="shared" ref="O4:O67" si="3">N4/SQRT(7)</f>
         <v>0</v>
       </c>
     </row>
@@ -23572,7 +24324,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.29880715233359845</v>
+        <v>0.19561519910898789</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -23617,7 +24369,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.53452248382484879</v>
+        <v>0.34992710611188255</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -23662,7 +24414,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>2.2253945610567474</v>
+        <v>1.456862718169367</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -23707,7 +24459,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>5.931654390599963</v>
+        <v>3.8831793201773546</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -23752,7 +24504,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>5.0023803857573164</v>
+        <v>3.2748266818136136</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -23797,7 +24549,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>10.331413032015284</v>
+        <v>6.7634974650090367</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -23842,7 +24594,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>19.673374562252068</v>
+        <v>12.879246872391256</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -23887,7 +24639,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>18.76610419524166</v>
+        <v>12.285298996303322</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -23932,7 +24684,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>23.177241505613299</v>
+        <v>15.173066228535028</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -23977,7 +24729,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>25.85663311783799</v>
+        <v>16.927139782742085</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -24022,7 +24774,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>48.093101673435754</v>
+        <v>31.484325546246669</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -24067,7 +24819,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>43.866613294221402</v>
+        <v>28.717439414589386</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -24112,7 +24864,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>53.607035785559773</v>
+        <v>35.094042752790592</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -24157,7 +24909,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>83.886970439537322</v>
+        <v>54.916913122814677</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -24202,7 +24954,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>79.77822683032305</v>
+        <v>52.227109037044606</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -24247,7 +24999,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>62.064290783639755</v>
+        <v>40.63061578139704</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -24292,7 +25044,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>102.40256693211219</v>
+        <v>67.038216332026551</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -24337,7 +25089,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
-        <v>104.53089654897892</v>
+        <v>68.431535128184862</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -24382,7 +25134,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>113.81582344589292</v>
+        <v>74.509946603504829</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -24427,7 +25179,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>116.14417866641118</v>
+        <v>76.034212895329205</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -24472,7 +25224,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>153.89382548955473</v>
+        <v>100.74715775602985</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -24517,7 +25269,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>153.77062385873569</v>
+        <v>100.66650335617695</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -24562,7 +25314,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>154.36827872393499</v>
+        <v>101.05776030749615</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -24607,7 +25359,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>165.70166464663737</v>
+        <v>108.47720300334338</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -24652,7 +25404,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>173.63316558329572</v>
+        <v>113.66958920575054</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -24697,7 +25449,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>168.99640740052942</v>
+        <v>110.63411844121732</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -24742,7 +25494,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>191.85570905041658</v>
+        <v>125.59904417613689</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -24787,7 +25539,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>189.69499328182198</v>
+        <v>124.18452366686981</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -24832,7 +25584,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>191.71467825167394</v>
+        <v>125.50671784605713</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -24877,7 +25629,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>192.66081717928657</v>
+        <v>126.12611116801844</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -24922,7 +25674,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="3"/>
-        <v>181.11846623004462</v>
+        <v>118.56986875049749</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -24967,7 +25719,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>177.90819930782388</v>
+        <v>116.46825572591329</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -25012,7 +25764,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>189.21158476563693</v>
+        <v>123.86805850729777</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -25057,7 +25809,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>181.83337152459117</v>
+        <v>119.03788412578096</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -25102,7 +25854,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>186.90002420443676</v>
+        <v>122.3547869008443</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -25147,7 +25899,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>212.47946679508544</v>
+        <v>139.10046288747643</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -25192,7 +25944,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>191.8051932113861</v>
+        <v>125.56597379668668</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -25237,7 +25989,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>175.8467947905086</v>
+        <v>115.11874969183883</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -25282,7 +26034,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>198.23901819100431</v>
+        <v>129.77790093628641</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -25327,7 +26079,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>189.47570204822219</v>
+        <v>124.04096385583962</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -25372,7 +26124,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>176.31841799372384</v>
+        <v>115.42749955301475</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -25417,7 +26169,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>163.15082125502917</v>
+        <v>106.8072840136259</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -25462,7 +26214,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="3"/>
-        <v>166.89111077928285</v>
+        <v>109.25587828018915</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -25507,7 +26259,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="3"/>
-        <v>140.81522847841626</v>
+        <v>92.185206214977683</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -25552,7 +26304,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>149.84746212319351</v>
+        <v>98.098191125223181</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -25597,7 +26349,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>145.99967384177529</v>
+        <v>95.579222402685616</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -25642,7 +26394,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>141.08472209819109</v>
+        <v>92.361631202395643</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -25687,7 +26439,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>116.7922198566652</v>
+        <v>76.458455439298959</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -25732,7 +26484,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>121.10480997879482</v>
+        <v>79.281708393010078</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -25777,7 +26529,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>115.31406390086741</v>
+        <v>75.490775216957076</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -25822,7 +26574,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>127.3812939470276</v>
+        <v>83.390631661953435</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -25867,7 +26619,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>124.3261599488179</v>
+        <v>81.390576975520716</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -25912,7 +26664,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>107.17931125877215</v>
+        <v>70.165329539507994</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -25957,7 +26709,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>93.356459719874621</v>
+        <v>61.116149039917325</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -26002,7 +26754,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>88.745455953423061</v>
+        <v>58.097538498561505</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -26047,7 +26799,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="3"/>
-        <v>81.647762632280021</v>
+        <v>53.451007512315726</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -26092,7 +26844,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="3"/>
-        <v>81.702676706166628</v>
+        <v>53.486957212359115</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -26137,7 +26889,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="3"/>
-        <v>74.848895401716803</v>
+        <v>49.000104123171333</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -26181,8 +26933,8 @@
         <v>110.59118732650316</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O112" si="7">N68/SQRT(3)</f>
-        <v>63.849851772956931</v>
+        <f t="shared" ref="O68:O112" si="7">N68/SQRT(7)</f>
+        <v>41.799539837326492</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -26227,7 +26979,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="7"/>
-        <v>71.854971329490525</v>
+        <v>47.040120739467419</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -26272,7 +27024,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>56.167055248055291</v>
+        <v>36.769968890997141</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -26317,7 +27069,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="7"/>
-        <v>53.657423043033369</v>
+        <v>35.127028955852587</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -26362,7 +27114,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="7"/>
-        <v>47.805595906755521</v>
+        <v>31.296108840739748</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -26407,7 +27159,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="7"/>
-        <v>44.385151421017667</v>
+        <v>29.056902302698603</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -26452,7 +27204,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="7"/>
-        <v>45.612694035135185</v>
+        <v>29.860517580981103</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -26497,7 +27249,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="7"/>
-        <v>42.734437434663199</v>
+        <v>27.976256332242649</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -26542,7 +27294,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="7"/>
-        <v>31.364124941297714</v>
+        <v>20.532639521364164</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -26587,7 +27339,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="7"/>
-        <v>28.332948176653847</v>
+        <v>18.548268525825328</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -26632,7 +27384,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="7"/>
-        <v>24.611142462984798</v>
+        <v>16.111774753709962</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -26677,7 +27429,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>25.972512942944675</v>
+        <v>17.003000935609176</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -26722,7 +27474,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="7"/>
-        <v>28.42659720352453</v>
+        <v>18.60957620502445</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -26767,7 +27519,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="7"/>
-        <v>19.559433237479777</v>
+        <v>12.804654765883749</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -26812,7 +27564,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="7"/>
-        <v>20.433253709158929</v>
+        <v>13.37670454520828</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -26857,7 +27609,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>15.447106371035815</v>
+        <v>10.112504887615176</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -26902,7 +27654,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>12.469963913339928</v>
+        <v>8.1635076494639947</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -26947,7 +27699,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="7"/>
-        <v>12.920775076264913</v>
+        <v>8.4586328320689681</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -26992,7 +27744,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="7"/>
-        <v>9.717130185791433</v>
+        <v>6.3613549448756492</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -27037,7 +27789,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="7"/>
-        <v>7.2139910359430495</v>
+        <v>4.7226657121345594</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -27082,7 +27834,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="7"/>
-        <v>4.6058968414724308</v>
+        <v>3.0152672741722046</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -27127,7 +27879,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="7"/>
-        <v>5.2007325491337326</v>
+        <v>3.4046786536608526</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -27172,7 +27924,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>4.0089186286863656</v>
+        <v>2.6244532958391193</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -27217,7 +27969,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="7"/>
-        <v>2.9990077724220088</v>
+        <v>1.9633114466978216</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -27262,7 +28014,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="7"/>
-        <v>3.7161167647860331</v>
+        <v>2.4327694808466287</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -27307,7 +28059,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="7"/>
-        <v>2.6265584942676461</v>
+        <v>1.7194861596015316</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -27352,7 +28104,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>1.2724180205607036</v>
+        <v>0.83299312783504276</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -27397,7 +28149,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="7"/>
-        <v>2.1588687513867737</v>
+        <v>1.4133113526720984</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -27442,7 +28194,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="7"/>
-        <v>1.2511899098363088</v>
+        <v>0.81909606722712247</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -27487,7 +28239,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="7"/>
-        <v>0.81649658092772615</v>
+        <v>0.53452248382484879</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -27532,7 +28284,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="7"/>
-        <v>1.0662573619463369</v>
+        <v>0.69802929591757357</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -27577,7 +28329,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="7"/>
-        <v>0.57217213527132937</v>
+        <v>0.37457458863219695</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -27622,7 +28374,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="7"/>
-        <v>0.89642145700079523</v>
+        <v>0.58684559732696362</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -27667,7 +28419,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="7"/>
-        <v>0.43643578047198478</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -27712,7 +28464,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="7"/>
-        <v>0.30860669992418382</v>
+        <v>0.20203050891044214</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -27802,7 +28554,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="7"/>
-        <v>0.2672612419124244</v>
+        <v>0.17496355305594127</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -28165,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -28186,7 +28938,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>0</v>
       </c>
@@ -28221,28 +28973,29 @@
         <v>3</v>
       </c>
       <c r="O122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q122" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="R122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T122" s="1" t="s">
+      <c r="U122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U122" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="V122" s="1"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -28283,11 +29036,11 @@
         <v>18.054104483418048</v>
       </c>
       <c r="O123">
-        <f>N123/SQRT(3)</f>
-        <v>10.42354208347904</v>
+        <f>N123/SQRT(7)</f>
+        <v>6.8238100867286287</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -28328,11 +29081,11 @@
         <v>18.506327751518413</v>
       </c>
       <c r="O124">
-        <f t="shared" ref="O124:O187" si="11">N124/SQRT(3)</f>
-        <v>10.684633309050598</v>
+        <f t="shared" ref="O124:O187" si="11">N124/SQRT(7)</f>
+        <v>6.9947344159386935</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -28374,10 +29127,10 @@
       </c>
       <c r="O125">
         <f t="shared" si="11"/>
-        <v>10.056887793739065</v>
+        <v>6.5837785100695276</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -28419,10 +29172,10 @@
       </c>
       <c r="O126">
         <f t="shared" si="11"/>
-        <v>8.6695936363388117</v>
+        <v>5.6755812975757225</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -28464,10 +29217,10 @@
       </c>
       <c r="O127">
         <f t="shared" si="11"/>
-        <v>6.1615314113588386</v>
+        <v>4.0336691556285666</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -28509,7 +29262,7 @@
       </c>
       <c r="O128">
         <f t="shared" si="11"/>
-        <v>6.5541845445414522</v>
+        <v>4.2907209705815532</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
@@ -28554,7 +29307,7 @@
       </c>
       <c r="O129">
         <f t="shared" si="11"/>
-        <v>9.1606189337473971</v>
+        <v>5.9970328109347282</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -28599,7 +29352,7 @@
       </c>
       <c r="O130">
         <f t="shared" si="11"/>
-        <v>12.227428685918747</v>
+        <v>8.0047310725567247</v>
       </c>
       <c r="P130">
         <f>A130</f>
@@ -28668,7 +29421,7 @@
       </c>
       <c r="O131">
         <f t="shared" si="11"/>
-        <v>12.433726685627423</v>
+        <v>8.1397848153257222</v>
       </c>
       <c r="P131">
         <f t="shared" ref="P131:P194" si="12">A131</f>
@@ -28737,7 +29490,7 @@
       </c>
       <c r="O132">
         <f t="shared" si="11"/>
-        <v>10.789427517905311</v>
+        <v>7.0633383294343703</v>
       </c>
       <c r="P132">
         <f t="shared" si="12"/>
@@ -28806,7 +29559,7 @@
       </c>
       <c r="O133">
         <f t="shared" si="11"/>
-        <v>17.177280931431234</v>
+        <v>11.245170014543596</v>
       </c>
       <c r="P133">
         <f t="shared" si="12"/>
@@ -28875,7 +29628,7 @@
       </c>
       <c r="O134">
         <f t="shared" si="11"/>
-        <v>11.071788063908965</v>
+        <v>7.2481866973387703</v>
       </c>
       <c r="P134">
         <f t="shared" si="12"/>
@@ -28944,7 +29697,7 @@
       </c>
       <c r="O135">
         <f t="shared" si="11"/>
-        <v>10.787859297556146</v>
+        <v>7.0623116882263108</v>
       </c>
       <c r="P135">
         <f t="shared" si="12"/>
@@ -29013,7 +29766,7 @@
       </c>
       <c r="O136">
         <f t="shared" si="11"/>
-        <v>15.195045866839227</v>
+        <v>9.947492553302375</v>
       </c>
       <c r="P136">
         <f t="shared" si="12"/>
@@ -29082,7 +29835,7 @@
       </c>
       <c r="O137">
         <f t="shared" si="11"/>
-        <v>27.550953069044432</v>
+        <v>18.036332558153141</v>
       </c>
       <c r="P137">
         <f t="shared" si="12"/>
@@ -29151,7 +29904,7 @@
       </c>
       <c r="O138">
         <f t="shared" si="11"/>
-        <v>37.883999937078528</v>
+        <v>24.800899619909227</v>
       </c>
       <c r="P138">
         <f t="shared" si="12"/>
@@ -29220,7 +29973,7 @@
       </c>
       <c r="O139">
         <f t="shared" si="11"/>
-        <v>45.96688318476663</v>
+        <v>30.092388807912261</v>
       </c>
       <c r="P139">
         <f t="shared" si="12"/>
@@ -29289,7 +30042,7 @@
       </c>
       <c r="O140">
         <f t="shared" si="11"/>
-        <v>40.706411214035015</v>
+        <v>26.648601522616381</v>
       </c>
       <c r="P140">
         <f t="shared" si="12"/>
@@ -29358,7 +30111,7 @@
       </c>
       <c r="O141">
         <f t="shared" si="11"/>
-        <v>64.440201486851635</v>
+        <v>42.186014444529064</v>
       </c>
       <c r="P141">
         <f t="shared" si="12"/>
@@ -29427,7 +30180,7 @@
       </c>
       <c r="O142">
         <f t="shared" si="11"/>
-        <v>77.078039709871518</v>
+        <v>50.459421627042609</v>
       </c>
       <c r="P142">
         <f t="shared" si="12"/>
@@ -29496,7 +30249,7 @@
       </c>
       <c r="O143">
         <f t="shared" si="11"/>
-        <v>63.193012173073463</v>
+        <v>41.36953738219642</v>
       </c>
       <c r="P143">
         <f t="shared" si="12"/>
@@ -29565,7 +30318,7 @@
       </c>
       <c r="O144">
         <f t="shared" si="11"/>
-        <v>99.284422987009847</v>
+        <v>64.996911952569462</v>
       </c>
       <c r="P144">
         <f t="shared" si="12"/>
@@ -29634,7 +30387,7 @@
       </c>
       <c r="O145">
         <f t="shared" si="11"/>
-        <v>105.28608159361735</v>
+        <v>68.925919789721178</v>
       </c>
       <c r="P145">
         <f t="shared" si="12"/>
@@ -29703,7 +30456,7 @@
       </c>
       <c r="O146">
         <f t="shared" si="11"/>
-        <v>102.34779885287602</v>
+        <v>67.002362207916974</v>
       </c>
       <c r="P146">
         <f t="shared" si="12"/>
@@ -29772,7 +30525,7 @@
       </c>
       <c r="O147">
         <f t="shared" si="11"/>
-        <v>120.23162011084302</v>
+        <v>78.710071440730431</v>
       </c>
       <c r="P147">
         <f t="shared" si="12"/>
@@ -29841,7 +30594,7 @@
       </c>
       <c r="O148">
         <f t="shared" si="11"/>
-        <v>126.35017689370075</v>
+        <v>82.71560709806343</v>
       </c>
       <c r="P148">
         <f t="shared" si="12"/>
@@ -29910,7 +30663,7 @@
       </c>
       <c r="O149">
         <f t="shared" si="11"/>
-        <v>120.49452462859267</v>
+        <v>78.882182848320937</v>
       </c>
       <c r="P149">
         <f t="shared" si="12"/>
@@ -29979,7 +30732,7 @@
       </c>
       <c r="O150">
         <f t="shared" si="11"/>
-        <v>142.9612670960926</v>
+        <v>93.590118273520559</v>
       </c>
       <c r="P150">
         <f t="shared" si="12"/>
@@ -30048,7 +30801,7 @@
       </c>
       <c r="O151">
         <f t="shared" si="11"/>
-        <v>143.6447343020605</v>
+        <v>94.037552588715982</v>
       </c>
       <c r="P151">
         <f t="shared" si="12"/>
@@ -30117,7 +30870,7 @@
       </c>
       <c r="O152">
         <f t="shared" si="11"/>
-        <v>152.3554406553709</v>
+        <v>99.740048477369925</v>
       </c>
       <c r="P152">
         <f t="shared" si="12"/>
@@ -30186,7 +30939,7 @@
       </c>
       <c r="O153">
         <f t="shared" si="11"/>
-        <v>163.22421078115983</v>
+        <v>106.85532873629884</v>
       </c>
       <c r="P153">
         <f t="shared" si="12"/>
@@ -30255,7 +31008,7 @@
       </c>
       <c r="O154">
         <f t="shared" si="11"/>
-        <v>181.61180528746752</v>
+        <v>118.89283497534301</v>
       </c>
       <c r="P154">
         <f t="shared" si="12"/>
@@ -30324,7 +31077,7 @@
       </c>
       <c r="O155">
         <f t="shared" si="11"/>
-        <v>165.17050946354104</v>
+        <v>108.1294803130138</v>
       </c>
       <c r="P155">
         <f t="shared" si="12"/>
@@ -30393,7 +31146,7 @@
       </c>
       <c r="O156">
         <f t="shared" si="11"/>
-        <v>181.4924118618876</v>
+        <v>118.81467363102873</v>
       </c>
       <c r="P156">
         <f t="shared" si="12"/>
@@ -30462,7 +31215,7 @@
       </c>
       <c r="O157">
         <f t="shared" si="11"/>
-        <v>173.56415022763503</v>
+        <v>113.62440804983204</v>
       </c>
       <c r="P157">
         <f t="shared" si="12"/>
@@ -30531,7 +31284,7 @@
       </c>
       <c r="O158">
         <f t="shared" si="11"/>
-        <v>176.59952588882149</v>
+        <v>115.61152786840542</v>
       </c>
       <c r="P158">
         <f t="shared" si="12"/>
@@ -30600,7 +31353,7 @@
       </c>
       <c r="O159">
         <f t="shared" si="11"/>
-        <v>186.85580114088393</v>
+        <v>122.32583610995947</v>
       </c>
       <c r="P159">
         <f t="shared" si="12"/>
@@ -30669,7 +31422,7 @@
       </c>
       <c r="O160">
         <f t="shared" si="11"/>
-        <v>200.58974710724692</v>
+        <v>131.31681425014401</v>
       </c>
       <c r="P160">
         <f t="shared" si="12"/>
@@ -30738,7 +31491,7 @@
       </c>
       <c r="O161">
         <f t="shared" si="11"/>
-        <v>182.65288748181274</v>
+        <v>119.57438325537981</v>
       </c>
       <c r="P161">
         <f t="shared" si="12"/>
@@ -30807,7 +31560,7 @@
       </c>
       <c r="O162">
         <f t="shared" si="11"/>
-        <v>192.07242898365612</v>
+        <v>125.74092067594772</v>
       </c>
       <c r="P162">
         <f t="shared" si="12"/>
@@ -30876,7 +31629,7 @@
       </c>
       <c r="O163">
         <f t="shared" si="11"/>
-        <v>193.76446197873014</v>
+        <v>126.84861628713195</v>
       </c>
       <c r="P163">
         <f t="shared" si="12"/>
@@ -30945,7 +31698,7 @@
       </c>
       <c r="O164">
         <f t="shared" si="11"/>
-        <v>190.18073815183379</v>
+        <v>124.50251832905062</v>
       </c>
       <c r="P164">
         <f t="shared" si="12"/>
@@ -31014,7 +31767,7 @@
       </c>
       <c r="O165">
         <f t="shared" si="11"/>
-        <v>178.69989803030001</v>
+        <v>116.98654420067712</v>
       </c>
       <c r="P165">
         <f t="shared" si="12"/>
@@ -31083,7 +31836,7 @@
       </c>
       <c r="O166">
         <f t="shared" si="11"/>
-        <v>186.99604167683722</v>
+        <v>122.41764509160336</v>
       </c>
       <c r="P166">
         <f t="shared" si="12"/>
@@ -31152,7 +31905,7 @@
       </c>
       <c r="O167">
         <f t="shared" si="11"/>
-        <v>186.17775090926628</v>
+        <v>121.88194803690659</v>
       </c>
       <c r="P167">
         <f t="shared" si="12"/>
@@ -31221,7 +31974,7 @@
       </c>
       <c r="O168">
         <f t="shared" si="11"/>
-        <v>180.57369727857295</v>
+        <v>118.21323375672884</v>
       </c>
       <c r="P168">
         <f t="shared" si="12"/>
@@ -31290,7 +32043,7 @@
       </c>
       <c r="O169">
         <f t="shared" si="11"/>
-        <v>158.84765021655369</v>
+        <v>103.99019729760367</v>
       </c>
       <c r="P169">
         <f t="shared" si="12"/>
@@ -31359,7 +32112,7 @@
       </c>
       <c r="O170">
         <f t="shared" si="11"/>
-        <v>173.17085304109003</v>
+        <v>113.36693460298125</v>
       </c>
       <c r="P170">
         <f t="shared" si="12"/>
@@ -31428,7 +32181,7 @@
       </c>
       <c r="O171">
         <f t="shared" si="11"/>
-        <v>141.03199676403278</v>
+        <v>92.327114368849607</v>
       </c>
       <c r="P171">
         <f t="shared" si="12"/>
@@ -31497,7 +32250,7 @@
       </c>
       <c r="O172">
         <f t="shared" si="11"/>
-        <v>177.9883063034527</v>
+        <v>116.52069806465109</v>
       </c>
       <c r="P172">
         <f t="shared" si="12"/>
@@ -31566,7 +32319,7 @@
       </c>
       <c r="O173">
         <f t="shared" si="11"/>
-        <v>146.5249238794465</v>
+        <v>95.923079267886592</v>
       </c>
       <c r="P173">
         <f t="shared" si="12"/>
@@ -31635,7 +32388,7 @@
       </c>
       <c r="O174">
         <f t="shared" si="11"/>
-        <v>148.26623069913884</v>
+        <v>97.063032169227</v>
       </c>
       <c r="P174">
         <f t="shared" si="12"/>
@@ -31704,7 +32457,7 @@
       </c>
       <c r="O175">
         <f t="shared" si="11"/>
-        <v>145.87011591981155</v>
+        <v>95.494406833502751</v>
       </c>
       <c r="P175">
         <f t="shared" si="12"/>
@@ -31773,7 +32526,7 @@
       </c>
       <c r="O176">
         <f t="shared" si="11"/>
-        <v>133.22581054046248</v>
+        <v>87.21676590335926</v>
       </c>
       <c r="P176">
         <f t="shared" si="12"/>
@@ -31842,7 +32595,7 @@
       </c>
       <c r="O177">
         <f t="shared" si="11"/>
-        <v>130.92363419639693</v>
+        <v>85.709637709099681</v>
       </c>
       <c r="P177">
         <f t="shared" si="12"/>
@@ -31911,7 +32664,7 @@
       </c>
       <c r="O178">
         <f t="shared" si="11"/>
-        <v>119.92533689513934</v>
+        <v>78.509562009293759</v>
       </c>
       <c r="P178">
         <f t="shared" si="12"/>
@@ -31980,7 +32733,7 @@
       </c>
       <c r="O179">
         <f t="shared" si="11"/>
-        <v>119.08327098625055</v>
+        <v>77.958300471061676</v>
       </c>
       <c r="P179">
         <f t="shared" si="12"/>
@@ -32049,7 +32802,7 @@
       </c>
       <c r="O180">
         <f t="shared" si="11"/>
-        <v>99.623995279918006</v>
+        <v>65.219214200592504</v>
       </c>
       <c r="P180">
         <f t="shared" si="12"/>
@@ -32118,7 +32871,7 @@
       </c>
       <c r="O181">
         <f t="shared" si="11"/>
-        <v>102.92504283867592</v>
+        <v>67.380257102114982</v>
       </c>
       <c r="P181">
         <f t="shared" si="12"/>
@@ -32187,7 +32940,7 @@
       </c>
       <c r="O182">
         <f t="shared" si="11"/>
-        <v>99.344184520512727</v>
+        <v>65.036035059844252</v>
       </c>
       <c r="P182">
         <f t="shared" si="12"/>
@@ -32256,7 +33009,7 @@
       </c>
       <c r="O183">
         <f t="shared" si="11"/>
-        <v>94.928296348390404</v>
+        <v>62.145157658528433</v>
       </c>
       <c r="P183">
         <f t="shared" si="12"/>
@@ -32325,7 +33078,7 @@
       </c>
       <c r="O184">
         <f t="shared" si="11"/>
-        <v>78.516866322898792</v>
+        <v>51.401354750773244</v>
       </c>
       <c r="P184">
         <f t="shared" si="12"/>
@@ -32394,7 +33147,7 @@
       </c>
       <c r="O185">
         <f t="shared" si="11"/>
-        <v>83.89550541654053</v>
+        <v>54.922500576839234</v>
       </c>
       <c r="P185">
         <f t="shared" si="12"/>
@@ -32463,7 +33216,7 @@
       </c>
       <c r="O186">
         <f t="shared" si="11"/>
-        <v>87.415729403054229</v>
+        <v>57.227028131324694</v>
       </c>
       <c r="P186">
         <f t="shared" si="12"/>
@@ -32532,7 +33285,7 @@
       </c>
       <c r="O187">
         <f t="shared" si="11"/>
-        <v>75.409530587060644</v>
+        <v>49.367126005184723</v>
       </c>
       <c r="P187">
         <f t="shared" si="12"/>
@@ -32600,8 +33353,8 @@
         <v>126.56878091796456</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188:O232" si="21">N188/SQRT(3)</f>
-        <v>73.074519733989618</v>
+        <f t="shared" ref="O188:O232" si="21">N188/SQRT(7)</f>
+        <v>47.838502579078806</v>
       </c>
       <c r="P188">
         <f t="shared" si="12"/>
@@ -32670,7 +33423,7 @@
       </c>
       <c r="O189">
         <f t="shared" si="21"/>
-        <v>59.832222200108866</v>
+        <v>39.169383889916581</v>
       </c>
       <c r="P189">
         <f t="shared" si="12"/>
@@ -32739,7 +33492,7 @@
       </c>
       <c r="O190">
         <f t="shared" si="21"/>
-        <v>54.944015977081278</v>
+        <v>35.969301742833999</v>
       </c>
       <c r="P190">
         <f t="shared" si="12"/>
@@ -32808,7 +33561,7 @@
       </c>
       <c r="O191">
         <f t="shared" si="21"/>
-        <v>48.996199128841923</v>
+        <v>32.075541610435351</v>
       </c>
       <c r="P191">
         <f t="shared" si="12"/>
@@ -32877,7 +33630,7 @@
       </c>
       <c r="O192">
         <f t="shared" si="21"/>
-        <v>47.118453640716275</v>
+        <v>30.846268633978553</v>
       </c>
       <c r="P192">
         <f t="shared" si="12"/>
@@ -32946,7 +33699,7 @@
       </c>
       <c r="O193">
         <f t="shared" si="21"/>
-        <v>50.359174544281309</v>
+        <v>32.967818469237478</v>
       </c>
       <c r="P193">
         <f t="shared" si="12"/>
@@ -33015,7 +33768,7 @@
       </c>
       <c r="O194">
         <f t="shared" si="21"/>
-        <v>44.330979273866213</v>
+        <v>29.021438307715766</v>
       </c>
       <c r="P194">
         <f t="shared" si="12"/>
@@ -33084,7 +33837,7 @@
       </c>
       <c r="O195">
         <f t="shared" si="21"/>
-        <v>38.789487086988615</v>
+        <v>25.393680106376774</v>
       </c>
       <c r="P195">
         <f t="shared" ref="P195:P232" si="22">A195</f>
@@ -33153,7 +33906,7 @@
       </c>
       <c r="O196">
         <f t="shared" si="21"/>
-        <v>31.171045505153252</v>
+        <v>20.406239359753965</v>
       </c>
       <c r="P196">
         <f t="shared" si="22"/>
@@ -33222,7 +33975,7 @@
       </c>
       <c r="O197">
         <f t="shared" si="21"/>
-        <v>34.235066958479884</v>
+        <v>22.412112251302233</v>
       </c>
       <c r="P197">
         <f t="shared" si="22"/>
@@ -33291,7 +34044,7 @@
       </c>
       <c r="O198">
         <f t="shared" si="21"/>
-        <v>32.225836275232098</v>
+        <v>21.096762009214977</v>
       </c>
       <c r="P198">
         <f t="shared" si="22"/>
@@ -33360,7 +34113,7 @@
       </c>
       <c r="O199">
         <f t="shared" si="21"/>
-        <v>24.272120438106484</v>
+        <v>15.889832740672523</v>
       </c>
       <c r="P199">
         <f t="shared" si="22"/>
@@ -33429,7 +34182,7 @@
       </c>
       <c r="O200">
         <f t="shared" si="21"/>
-        <v>16.726524231651506</v>
+        <v>10.950080486436585</v>
       </c>
       <c r="P200">
         <f t="shared" si="22"/>
@@ -33498,7 +34251,7 @@
       </c>
       <c r="O201">
         <f t="shared" si="21"/>
-        <v>22.964095872734244</v>
+        <v>15.033529657575381</v>
       </c>
       <c r="P201">
         <f t="shared" si="22"/>
@@ -33567,7 +34320,7 @@
       </c>
       <c r="O202">
         <f t="shared" si="21"/>
-        <v>17.341969336379677</v>
+        <v>11.352983883366138</v>
       </c>
       <c r="P202">
         <f t="shared" si="22"/>
@@ -33636,7 +34389,7 @@
       </c>
       <c r="O203">
         <f t="shared" si="21"/>
-        <v>19.306106912007476</v>
+        <v>12.638813757026341</v>
       </c>
       <c r="P203">
         <f t="shared" si="22"/>
@@ -33705,7 +34458,7 @@
       </c>
       <c r="O204">
         <f t="shared" si="21"/>
-        <v>19.071624388477687</v>
+        <v>12.485308912280695</v>
       </c>
       <c r="P204">
         <f t="shared" si="22"/>
@@ -33774,7 +34527,7 @@
       </c>
       <c r="O205">
         <f t="shared" si="21"/>
-        <v>11.563402609441699</v>
+        <v>7.5700239641452081</v>
       </c>
       <c r="P205">
         <f t="shared" si="22"/>
@@ -33843,7 +34596,7 @@
       </c>
       <c r="O206">
         <f t="shared" si="21"/>
-        <v>11.082060811981787</v>
+        <v>7.2549117895729021</v>
       </c>
       <c r="P206">
         <f t="shared" si="22"/>
@@ -33912,7 +34665,7 @@
       </c>
       <c r="O207">
         <f t="shared" si="21"/>
-        <v>17.737875413228071</v>
+        <v>11.612165249830532</v>
       </c>
       <c r="P207">
         <f t="shared" si="22"/>
@@ -33981,7 +34734,7 @@
       </c>
       <c r="O208">
         <f t="shared" si="21"/>
-        <v>10.64062872437882</v>
+        <v>6.9659266530553339</v>
       </c>
       <c r="P208">
         <f t="shared" si="22"/>
@@ -34050,7 +34803,7 @@
       </c>
       <c r="O209">
         <f t="shared" si="21"/>
-        <v>9.9402811419830925</v>
+        <v>6.5074415374685133</v>
       </c>
       <c r="P209">
         <f t="shared" si="22"/>
@@ -34119,7 +34872,7 @@
       </c>
       <c r="O210">
         <f t="shared" si="21"/>
-        <v>10.239349957041588</v>
+        <v>6.7032280350408424</v>
       </c>
       <c r="P210">
         <f t="shared" si="22"/>
@@ -34188,7 +34941,7 @@
       </c>
       <c r="O211">
         <f t="shared" si="21"/>
-        <v>12.42686672734161</v>
+        <v>8.1352939184530104</v>
       </c>
       <c r="P211">
         <f t="shared" si="22"/>
@@ -34257,7 +35010,7 @@
       </c>
       <c r="O212">
         <f t="shared" si="21"/>
-        <v>10.94157180775882</v>
+        <v>7.1629401472642282</v>
       </c>
       <c r="P212">
         <f t="shared" si="22"/>
@@ -34326,7 +35079,7 @@
       </c>
       <c r="O213">
         <f t="shared" si="21"/>
-        <v>10.758935876806373</v>
+        <v>7.0433768646630392</v>
       </c>
       <c r="P213">
         <f t="shared" si="22"/>
@@ -34395,7 +35148,7 @@
       </c>
       <c r="O214">
         <f t="shared" si="21"/>
-        <v>6.138549017873232</v>
+        <v>4.0186236473715589</v>
       </c>
       <c r="P214">
         <f t="shared" si="22"/>
@@ -34464,7 +35217,7 @@
       </c>
       <c r="O215">
         <f t="shared" si="21"/>
-        <v>4.7901473143135522</v>
+        <v>3.1358875225473248</v>
       </c>
       <c r="P215">
         <f t="shared" si="22"/>
@@ -34533,7 +35286,7 @@
       </c>
       <c r="O216">
         <f t="shared" si="21"/>
-        <v>7.1515958489917875</v>
+        <v>4.6818184739624051</v>
       </c>
       <c r="P216">
         <f t="shared" si="22"/>
@@ -34602,7 +35355,7 @@
       </c>
       <c r="O217">
         <f t="shared" si="21"/>
-        <v>8.6005154818728045</v>
+        <v>5.630359030188818</v>
       </c>
       <c r="P217">
         <f t="shared" si="22"/>
@@ -34671,7 +35424,7 @@
       </c>
       <c r="O218">
         <f t="shared" si="21"/>
-        <v>5.4281597516971534</v>
+        <v>3.5535647066378431</v>
       </c>
       <c r="P218">
         <f t="shared" si="22"/>
@@ -34740,7 +35493,7 @@
       </c>
       <c r="O219">
         <f t="shared" si="21"/>
-        <v>4.0165438789556474</v>
+        <v>2.6294451939179715</v>
       </c>
       <c r="P219">
         <f t="shared" si="22"/>
@@ -34809,7 +35562,7 @@
       </c>
       <c r="O220">
         <f t="shared" si="21"/>
-        <v>7.7092593310454482</v>
+        <v>5.0468949195086266</v>
       </c>
       <c r="P220">
         <f t="shared" si="22"/>
@@ -34878,7 +35631,7 @@
       </c>
       <c r="O221">
         <f t="shared" si="21"/>
-        <v>12.441114631748826</v>
+        <v>8.1446213613730922</v>
       </c>
       <c r="P221">
         <f t="shared" si="22"/>
@@ -34947,7 +35700,7 @@
       </c>
       <c r="O222">
         <f t="shared" si="21"/>
-        <v>7.4597380207048314</v>
+        <v>4.8835448777742769</v>
       </c>
       <c r="P222">
         <f t="shared" si="22"/>
@@ -35016,7 +35769,7 @@
       </c>
       <c r="O223">
         <f t="shared" si="21"/>
-        <v>4.2475291675780795</v>
+        <v>2.7806605609941881</v>
       </c>
       <c r="P223">
         <f t="shared" si="22"/>
@@ -35069,7 +35822,7 @@
       </c>
       <c r="O224">
         <f t="shared" si="21"/>
-        <v>18.463541175172345</v>
+        <v>12.087225004594453</v>
       </c>
       <c r="P224">
         <f t="shared" si="22"/>
@@ -35122,7 +35875,7 @@
       </c>
       <c r="O225">
         <f t="shared" si="21"/>
-        <v>2.6447526138375195</v>
+        <v>1.7313970067632491</v>
       </c>
       <c r="P225">
         <f t="shared" si="22"/>
@@ -35175,7 +35928,7 @@
       </c>
       <c r="O226">
         <f t="shared" si="21"/>
-        <v>2.5003166306758398</v>
+        <v>1.6368414602041399</v>
       </c>
       <c r="P226">
         <f t="shared" si="22"/>
@@ -35228,7 +35981,7 @@
       </c>
       <c r="O227">
         <f t="shared" si="21"/>
-        <v>6.4053155247308409</v>
+        <v>4.1932633203078371</v>
       </c>
       <c r="P227">
         <f t="shared" si="22"/>
@@ -35281,7 +36034,7 @@
       </c>
       <c r="O228">
         <f t="shared" si="21"/>
-        <v>4.7875301838403708</v>
+        <v>3.1341742084763347</v>
       </c>
       <c r="P228">
         <f t="shared" si="22"/>
@@ -35334,7 +36087,7 @@
       </c>
       <c r="O229">
         <f t="shared" si="21"/>
-        <v>5.558014616148454</v>
+        <v>3.6385746703101733</v>
       </c>
       <c r="P229">
         <f t="shared" si="22"/>
@@ -35387,7 +36140,7 @@
       </c>
       <c r="O230">
         <f t="shared" si="21"/>
-        <v>5.1621851830450787</v>
+        <v>3.3794434789547911</v>
       </c>
       <c r="P230">
         <f t="shared" si="22"/>
@@ -35440,7 +36193,7 @@
       </c>
       <c r="O231">
         <f t="shared" si="21"/>
-        <v>1.8283179261749287</v>
+        <v>1.1969150415916132</v>
       </c>
       <c r="P231">
         <f t="shared" si="22"/>
@@ -35493,7 +36246,7 @@
       </c>
       <c r="O232">
         <f t="shared" si="21"/>
-        <v>6.2922758962922751</v>
+        <v>4.119261512615064</v>
       </c>
       <c r="P232">
         <f t="shared" si="22"/>
@@ -35513,7 +36266,7 @@
         <v>162724.44598495992</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:H240" si="28">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:I240" si="28">SUM(C123:C232)</f>
         <v>180954.53929556283</v>
       </c>
       <c r="D240">
@@ -35537,7 +36290,7 @@
         <v>193458.91895056827</v>
       </c>
       <c r="I240">
-        <f>SUM(I123:I232)</f>
+        <f t="shared" si="28"/>
         <v>184926.81991420136</v>
       </c>
     </row>
@@ -35550,7 +36303,7 @@
         <v>161351</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:I241" si="29">SUM(C3:C112)</f>
+        <f t="shared" ref="C241:E241" si="29">SUM(C3:C112)</f>
         <v>181519</v>
       </c>
       <c r="D241">
@@ -35566,15 +36319,15 @@
         <v>186904</v>
       </c>
       <c r="G241">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G241:I241" si="30">SUM(G3:G112)</f>
         <v>196497</v>
       </c>
       <c r="H241">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>193015</v>
       </c>
       <c r="I241">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>183450</v>
       </c>
     </row>
@@ -35587,15 +36340,15 @@
         <v>1373.4459849599225</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:I242" si="30">C240-C241</f>
+        <f t="shared" ref="C242:E242" si="31">C240-C241</f>
         <v>-564.46070443716599</v>
       </c>
       <c r="D242">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>450.14037133270176</v>
       </c>
       <c r="E242">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-69.242942398122977</v>
       </c>
       <c r="F242">
@@ -35603,15 +36356,15 @@
         <v>2030.9073703970935</v>
       </c>
       <c r="G242">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="G242:I242" si="32">G240-G241</f>
         <v>510.14330274114036</v>
       </c>
       <c r="H242">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>443.91895056827343</v>
       </c>
       <c r="I242">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1476.8199142013618</v>
       </c>
     </row>
@@ -35624,15 +36377,15 @@
         <v>8.5121628310944625E-3</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:E243" si="31">C242/C241</f>
+        <f t="shared" ref="C243:E243" si="33">C242/C241</f>
         <v>-3.1096508048037174E-3</v>
       </c>
       <c r="D243">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2.3344865800204425E-3</v>
       </c>
       <c r="E243">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-3.5596824181638383E-4</v>
       </c>
       <c r="F243">
@@ -35640,15 +36393,15 @@
         <v>1.086604551211902E-2</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:H243" si="32">G242/G241</f>
+        <f t="shared" ref="G243:I243" si="34">G242/G241</f>
         <v>2.5961887598341979E-3</v>
       </c>
       <c r="H243">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2.299919439257433E-3</v>
       </c>
       <c r="I243">
-        <f>I242/I241</f>
+        <f t="shared" si="34"/>
         <v>8.0502584584429653E-3</v>
       </c>
       <c r="J243">
@@ -35673,11 +36426,11 @@
         <v>1.7552756838331065</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="D244:E244" si="33">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="35">(D241-D240)^2/D241</f>
         <v>1.050846656001611</v>
       </c>
       <c r="E244">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.4648288463652974E-2</v>
       </c>
       <c r="F244">
@@ -35689,11 +36442,11 @@
         <v>1.3244283084812429</v>
       </c>
       <c r="H244">
-        <f t="shared" ref="H244:I244" si="34">(H241-H240)^2/H241</f>
+        <f t="shared" ref="H244:I244" si="36">(H241-H240)^2/H241</f>
         <v>1.0209778238667315</v>
       </c>
       <c r="I244">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>11.888782005896525</v>
       </c>
     </row>
